--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jeeratheepk\Documents\ฝึกสร้างเว็บ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jeeratheepk\Documents\ฝึกสร้างเว็บ\Daily_DC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1249,7 +1249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1340,9 +1339,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1364,9 +1361,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1667,7 +1662,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1676,9 +1670,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1686,7 +1678,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1695,9 +1686,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2115,7 +2104,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2222,7 +2210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2287,7 +2274,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2296,9 +2282,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-B8D4-4943-8087-5038E5DF57F4}"/>
                 </c:ext>
@@ -2306,7 +2290,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2315,9 +2298,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2618,7 +2599,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2654,9 +2634,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2955,7 +2933,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2964,9 +2941,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2988,9 +2963,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3292,7 +3265,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3328,9 +3300,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3749,7 +3719,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3856,7 +3825,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3921,7 +3889,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3930,9 +3897,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3940,7 +3905,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3949,9 +3913,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4251,7 +4213,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4260,9 +4221,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4270,7 +4229,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4279,9 +4237,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4579,7 +4535,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4588,9 +4543,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4598,7 +4551,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4607,9 +4559,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4910,7 +4860,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4919,9 +4868,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4929,7 +4876,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4938,9 +4884,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5357,7 +5301,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5469,7 +5412,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5534,7 +5476,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5543,9 +5484,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5553,7 +5492,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5562,9 +5500,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5864,7 +5800,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5873,9 +5808,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -6293,7 +6226,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6405,7 +6337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6470,7 +6401,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6479,9 +6409,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6489,7 +6417,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6498,9 +6425,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6800,7 +6725,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6809,9 +6733,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7229,7 +7151,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7336,7 +7257,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7401,7 +7321,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7410,9 +7329,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-E73E-4A56-8161-D7588DDD0A4F}"/>
                 </c:ext>
@@ -7420,7 +7337,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7429,9 +7345,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -7731,7 +7645,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7740,9 +7653,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -8160,7 +8071,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12023,7 +11933,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X42" sqref="X42"/>
+      <selection pane="bottomRight" activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16426,86 +16336,66 @@
         <v>46058</v>
       </c>
       <c r="D37" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C37,0,"","auto")</f>
         <v>253.52999877929688</v>
       </c>
       <c r="E37" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C37,0,"","auto")</f>
         <v>447.1400146484375</v>
       </c>
       <c r="F37" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C37,0,"","auto")</f>
         <v>420682</v>
       </c>
       <c r="G37" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C37,0,"","auto")</f>
         <v>187674</v>
       </c>
       <c r="H37" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C37,0,"","auto")</f>
         <v>45.869998931884766</v>
       </c>
       <c r="I37" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C37,0,"","auto")</f>
         <v>53.599998474121094</v>
       </c>
       <c r="J37" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C37,0,"","auto")</f>
         <v>70125</v>
       </c>
       <c r="K37" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C37,0,"","auto")</f>
         <v>144518</v>
       </c>
       <c r="L37" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C37,0,"","auto")</f>
         <v>1198.5999755859375</v>
       </c>
       <c r="M37" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C37,0,"","auto")</f>
         <v>1084.47998046875</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" ref="N37" si="0">(J37+F37-F36)/(D37*H37/100)/1000</f>
         <v>0.56089637886592292</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" ref="O37" si="1">(K37+G37-G36)/(E37*I37/100)/1000</f>
         <v>0.56089481233206262</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" ref="P37" si="2">((J37+K37)+F37+G37-F36-G36)/(D37*H37/100+E37*I37/100)/1000</f>
         <v>0.56089532412601428</v>
       </c>
       <c r="Q37" s="8">
-        <f t="shared" ref="Q37" si="3">P37*H37*10</f>
         <v>257.28267918559436</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" ref="R37" si="4">P37*I37*10</f>
         <v>300.63988517296019</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" ref="S37" si="5">((J37+K37)+F37+G37-F36-G36)/(D37+E37)</f>
         <v>284.95154091618934</v>
       </c>
       <c r="T37" s="5">
-        <f t="shared" ref="T37" si="6">IF(AL37&lt;3000,0,AL37)</f>
         <v>206677</v>
       </c>
       <c r="U37" s="5">
-        <f t="shared" ref="U37" si="7">IF(AM37&lt;3000,0,AM37)</f>
         <v>0</v>
       </c>
       <c r="V37" s="5">
-        <f t="shared" ref="V37" si="8">IF(AN37&lt;3000,0,AN37)</f>
         <v>0</v>
       </c>
       <c r="W37" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X37" s="7">
-        <f t="shared" ref="X37" si="9">J37+K37</f>
         <v>214643</v>
       </c>
       <c r="Y37" s="4">
@@ -16545,19 +16435,15 @@
         <v>0</v>
       </c>
       <c r="AK37" s="4">
-        <f t="shared" ref="AK37" si="10">SUM(AH37:AJ37)</f>
         <v>250000</v>
       </c>
       <c r="AL37" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C37,0,"","auto")</f>
         <v>206677</v>
       </c>
       <c r="AM37" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C37,0,"","auto")</f>
         <v>-19</v>
       </c>
       <c r="AN37" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C37,0,"","auto")</f>
         <v>961</v>
       </c>
     </row>
@@ -16568,43 +16454,141 @@
       <c r="C38" s="13">
         <v>46059</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="4"/>
+      <c r="D38" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C38,0,"","auto")</f>
+        <v>267.52999877929688</v>
+      </c>
+      <c r="E38" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C38,0,"","auto")</f>
+        <v>540.44000244140625</v>
+      </c>
+      <c r="F38" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C38,0,"","auto")</f>
+        <v>421670</v>
+      </c>
+      <c r="G38" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C38,0,"","auto")</f>
+        <v>189995</v>
+      </c>
+      <c r="H38" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C38,0,"","auto")</f>
+        <v>45.75</v>
+      </c>
+      <c r="I38" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C38,0,"","auto")</f>
+        <v>53.220001220703125</v>
+      </c>
+      <c r="J38" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C38,0,"","auto")</f>
+        <v>74605</v>
+      </c>
+      <c r="K38" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C38,0,"","auto")</f>
+        <v>175317</v>
+      </c>
+      <c r="L38" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C38,0,"","auto")</f>
+        <v>1528.800048828125</v>
+      </c>
+      <c r="M38" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C38,0,"","auto")</f>
+        <v>1389.8699951171875</v>
+      </c>
+      <c r="N38" s="8">
+        <f t="shared" ref="N38" si="0">(J38+F38-F37)/(D38*H38/100)/1000</f>
+        <v>0.61761522762613918</v>
+      </c>
+      <c r="O38" s="8">
+        <f t="shared" ref="O38" si="1">(K38+G38-G37)/(E38*I38/100)/1000</f>
+        <v>0.61760884551520856</v>
+      </c>
+      <c r="P38" s="8">
+        <f t="shared" ref="P38" si="2">((J38+K38)+F38+G38-F37-G37)/(D38*H38/100+E38*I38/100)/1000</f>
+        <v>0.61761075065089277</v>
+      </c>
+      <c r="Q38" s="8">
+        <f t="shared" ref="Q38" si="3">P38*H38*10</f>
+        <v>282.55691842278344</v>
+      </c>
+      <c r="R38" s="8">
+        <f t="shared" ref="R38" si="4">P38*I38*10</f>
+        <v>328.69244903559888</v>
+      </c>
+      <c r="S38" s="4">
+        <f t="shared" ref="S38" si="5">((J38+K38)+F38+G38-F37-G37)/(D38+E38)</f>
+        <v>313.41633924206553</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" ref="T38" si="6">IF(AL38&lt;3000,0,AL38)</f>
+        <v>214459</v>
+      </c>
+      <c r="U38" s="5">
+        <f t="shared" ref="U38" si="7">IF(AM38&lt;3000,0,AM38)</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
+        <f t="shared" ref="V38" si="8">IF(AN38&lt;3000,0,AN38)</f>
+        <v>0</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X38" s="7">
+        <f t="shared" ref="X38" si="9">J38+K38</f>
+        <v>249922</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA38" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB38" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC38" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF38" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG38" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="4">
+        <f t="shared" ref="AK38" si="10">SUM(AH38:AJ38)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL38" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C38,0,"","auto")</f>
+        <v>214459</v>
+      </c>
+      <c r="AM38" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C38,0,"","auto")</f>
+        <v>274</v>
+      </c>
+      <c r="AN38" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C38,0,"","auto")</f>
+        <v>-90</v>
+      </c>
     </row>
     <row r="39" spans="2:40">
       <c r="B39" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -11930,10 +11930,10 @@
   <dimension ref="A1:BL92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L48" sqref="L48"/>
+      <selection pane="bottomRight" activeCell="AH51" sqref="AH51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16597,43 +16597,141 @@
       <c r="C39" s="13">
         <v>46060</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
+      <c r="D39" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C39,0,"","auto")</f>
+        <v>202.67999267578125</v>
+      </c>
+      <c r="E39" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C39,0,"","auto")</f>
+        <v>586.760009765625</v>
+      </c>
+      <c r="F39" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C39,0,"","auto")</f>
+        <v>419141</v>
+      </c>
+      <c r="G39" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C39,0,"","auto")</f>
+        <v>181582</v>
+      </c>
+      <c r="H39" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C39,0,"","auto")</f>
+        <v>46.290000915527344</v>
+      </c>
+      <c r="I39" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C39,0,"","auto")</f>
+        <v>53.180000305175781</v>
+      </c>
+      <c r="J39" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C39,0,"","auto")</f>
+        <v>56412</v>
+      </c>
+      <c r="K39" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C39,0,"","auto")</f>
+        <v>187621</v>
+      </c>
+      <c r="L39" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C39,0,"","auto")</f>
+        <v>1571.800048828125</v>
+      </c>
+      <c r="M39" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C39,0,"","auto")</f>
+        <v>1153.5400390625</v>
+      </c>
+      <c r="N39" s="8">
+        <f t="shared" ref="N39" si="11">(J39+F39-F38)/(D39*H39/100)/1000</f>
+        <v>0.57431967992542365</v>
+      </c>
+      <c r="O39" s="8">
+        <f t="shared" ref="O39" si="12">(K39+G39-G38)/(E39*I39/100)/1000</f>
+        <v>0.57431287232367023</v>
+      </c>
+      <c r="P39" s="8">
+        <f t="shared" ref="P39" si="13">((J39+K39)+F39+G39-F38-G38)/(D39*H39/100+E39*I39/100)/1000</f>
+        <v>0.57431444600374548</v>
+      </c>
+      <c r="Q39" s="8">
+        <f t="shared" ref="Q39" si="14">P39*H39*10</f>
+        <v>265.85016231313955</v>
+      </c>
+      <c r="R39" s="8">
+        <f t="shared" ref="R39" si="15">P39*I39*10</f>
+        <v>305.42042413746049</v>
+      </c>
+      <c r="S39" s="4">
+        <f t="shared" ref="S39" si="16">((J39+K39)+F39+G39-F38-G38)/(D39+E39)</f>
+        <v>295.26119689798776</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" ref="T39" si="17">IF(AL39&lt;3000,0,AL39)</f>
+        <v>249405</v>
+      </c>
+      <c r="U39" s="5">
+        <f t="shared" ref="U39" si="18">IF(AM39&lt;3000,0,AM39)</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" ref="V39" si="19">IF(AN39&lt;3000,0,AN39)</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X39" s="7">
+        <f t="shared" ref="X39" si="20">J39+K39</f>
+        <v>244033</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC39" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF39" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG39" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="4">
+        <f t="shared" ref="AK39" si="21">SUM(AH39:AJ39)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL39" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C39,0,"","auto")</f>
+        <v>249405</v>
+      </c>
+      <c r="AM39" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C39,0,"","auto")</f>
+        <v>530</v>
+      </c>
+      <c r="AN39" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C39,0,"","auto")</f>
+        <v>-13</v>
+      </c>
     </row>
     <row r="40" spans="2:40">
       <c r="B40" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1249,6 +1249,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1339,7 +1340,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1361,7 +1364,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1662,6 +1667,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1670,7 +1676,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1678,6 +1686,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1686,7 +1695,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2104,6 +2115,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3825,6 +3837,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3889,6 +3902,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3897,7 +3911,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3905,6 +3921,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3913,7 +3930,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4213,6 +4232,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4221,7 +4241,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4229,6 +4251,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4237,7 +4260,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4535,6 +4560,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4543,7 +4569,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4551,6 +4579,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4559,7 +4588,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4860,6 +4891,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4868,7 +4900,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4876,6 +4910,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4884,7 +4919,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5301,6 +5338,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6337,6 +6375,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6401,6 +6440,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6409,7 +6449,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6417,6 +6459,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6425,7 +6468,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6725,6 +6770,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6733,7 +6779,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7151,6 +7199,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11933,7 +11982,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH51" sqref="AH51"/>
+      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16598,86 +16647,66 @@
         <v>46060</v>
       </c>
       <c r="D39" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C39,0,"","auto")</f>
         <v>202.67999267578125</v>
       </c>
       <c r="E39" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C39,0,"","auto")</f>
         <v>586.760009765625</v>
       </c>
       <c r="F39" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C39,0,"","auto")</f>
         <v>419141</v>
       </c>
       <c r="G39" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C39,0,"","auto")</f>
         <v>181582</v>
       </c>
       <c r="H39" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C39,0,"","auto")</f>
         <v>46.290000915527344</v>
       </c>
       <c r="I39" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C39,0,"","auto")</f>
         <v>53.180000305175781</v>
       </c>
       <c r="J39" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C39,0,"","auto")</f>
         <v>56412</v>
       </c>
       <c r="K39" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C39,0,"","auto")</f>
         <v>187621</v>
       </c>
       <c r="L39" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C39,0,"","auto")</f>
         <v>1571.800048828125</v>
       </c>
       <c r="M39" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C39,0,"","auto")</f>
         <v>1153.5400390625</v>
       </c>
       <c r="N39" s="8">
-        <f t="shared" ref="N39" si="11">(J39+F39-F38)/(D39*H39/100)/1000</f>
         <v>0.57431967992542365</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" ref="O39" si="12">(K39+G39-G38)/(E39*I39/100)/1000</f>
         <v>0.57431287232367023</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" ref="P39" si="13">((J39+K39)+F39+G39-F38-G38)/(D39*H39/100+E39*I39/100)/1000</f>
         <v>0.57431444600374548</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" ref="Q39" si="14">P39*H39*10</f>
         <v>265.85016231313955</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" ref="R39" si="15">P39*I39*10</f>
         <v>305.42042413746049</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" ref="S39" si="16">((J39+K39)+F39+G39-F38-G38)/(D39+E39)</f>
         <v>295.26119689798776</v>
       </c>
       <c r="T39" s="5">
-        <f t="shared" ref="T39" si="17">IF(AL39&lt;3000,0,AL39)</f>
         <v>249405</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" ref="U39" si="18">IF(AM39&lt;3000,0,AM39)</f>
         <v>0</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" ref="V39" si="19">IF(AN39&lt;3000,0,AN39)</f>
         <v>0</v>
       </c>
       <c r="W39" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X39" s="7">
-        <f t="shared" ref="X39" si="20">J39+K39</f>
         <v>244033</v>
       </c>
       <c r="Y39" s="4">
@@ -16717,19 +16746,15 @@
         <v>0</v>
       </c>
       <c r="AK39" s="4">
-        <f t="shared" ref="AK39" si="21">SUM(AH39:AJ39)</f>
         <v>250000</v>
       </c>
       <c r="AL39" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C39,0,"","auto")</f>
         <v>249405</v>
       </c>
       <c r="AM39" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C39,0,"","auto")</f>
         <v>530</v>
       </c>
       <c r="AN39" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C39,0,"","auto")</f>
         <v>-13</v>
       </c>
     </row>
@@ -16740,43 +16765,117 @@
       <c r="C40" s="13">
         <v>46061</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="4"/>
+      <c r="D40" s="6">
+        <v>511.80999755859375</v>
+      </c>
+      <c r="E40" s="6">
+        <v>365.79998779296875</v>
+      </c>
+      <c r="F40" s="7">
+        <v>422878</v>
+      </c>
+      <c r="G40" s="7">
+        <v>184666</v>
+      </c>
+      <c r="H40" s="6">
+        <v>45.580001831054688</v>
+      </c>
+      <c r="I40" s="6">
+        <v>52.610000610351563</v>
+      </c>
+      <c r="J40" s="6">
+        <v>136530</v>
+      </c>
+      <c r="K40" s="6">
+        <v>112631</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1616.0999755859375</v>
+      </c>
+      <c r="M40" s="6">
+        <v>1365.0899658203125</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0.60127397297184004</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0.60128125682479905</v>
+      </c>
+      <c r="P40" s="8">
+        <v>0.60127726556839112</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>274.06218865578819</v>
+      </c>
+      <c r="R40" s="8">
+        <v>316.33197308543578</v>
+      </c>
+      <c r="S40" s="4">
+        <v>291.68081980910455</v>
+      </c>
+      <c r="T40" s="5">
+        <v>243968</v>
+      </c>
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X40" s="7">
+        <v>249161</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA40" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB40" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC40" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF40" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG40" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AL40" s="5">
+        <v>243968</v>
+      </c>
+      <c r="AM40" s="5">
+        <v>92</v>
+      </c>
+      <c r="AN40" s="5">
+        <v>-27</v>
+      </c>
     </row>
     <row r="41" spans="2:40">
       <c r="B41" s="20">
@@ -16785,43 +16884,141 @@
       <c r="C41" s="13">
         <v>46062</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="4"/>
+      <c r="D41" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C41,0,"","auto")</f>
+        <v>325.8699951171875</v>
+      </c>
+      <c r="E41" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C41,0,"","auto")</f>
+        <v>532.15997314453125</v>
+      </c>
+      <c r="F41" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C41,0,"","auto")</f>
+        <v>416906</v>
+      </c>
+      <c r="G41" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C41,0,"","auto")</f>
+        <v>172831</v>
+      </c>
+      <c r="H41" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C41,0,"","auto")</f>
+        <v>43.009998321533203</v>
+      </c>
+      <c r="I41" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C41,0,"","auto")</f>
+        <v>52.189998626708984</v>
+      </c>
+      <c r="J41" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C41,0,"","auto")</f>
+        <v>87671</v>
+      </c>
+      <c r="K41" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C41,0,"","auto")</f>
+        <v>173729</v>
+      </c>
+      <c r="L41" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C41,0,"","auto")</f>
+        <v>1141.699951171875</v>
+      </c>
+      <c r="M41" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C41,0,"","auto")</f>
+        <v>1405.5400390625</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" ref="N41" si="11">(J41+F41-F40)/(D41*H41/100)/1000</f>
+        <v>0.58291192636765532</v>
+      </c>
+      <c r="O41" s="8">
+        <f t="shared" ref="O41" si="12">(K41+G41-G40)/(E41*I41/100)/1000</f>
+        <v>0.58290967337600053</v>
+      </c>
+      <c r="P41" s="8">
+        <f t="shared" ref="P41" si="13">((J41+K41)+F41+G41-F40-G40)/(D41*H41/100+E41*I41/100)/1000</f>
+        <v>0.58291042900810974</v>
+      </c>
+      <c r="Q41" s="8">
+        <f t="shared" ref="Q41" si="14">P41*H41*10</f>
+        <v>250.70976573242999</v>
+      </c>
+      <c r="R41" s="8">
+        <f t="shared" ref="R41" si="15">P41*I41*10</f>
+        <v>304.22094489427593</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" ref="S41" si="16">((J41+K41)+F41+G41-F40-G40)/(D41+E41)</f>
+        <v>283.89800940577237</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" ref="T41" si="17">IF(AL41&lt;3000,0,AL41)</f>
+        <v>261643</v>
+      </c>
+      <c r="U41" s="5">
+        <f t="shared" ref="U41" si="18">IF(AM41&lt;3000,0,AM41)</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" ref="V41" si="19">IF(AN41&lt;3000,0,AN41)</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X41" s="7">
+        <f t="shared" ref="X41" si="20">J41+K41</f>
+        <v>261400</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA41" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB41" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC41" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF41" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG41" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="4">
+        <f t="shared" ref="AK41" si="21">SUM(AH41:AJ41)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL41" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C41,0,"","auto")</f>
+        <v>261643</v>
+      </c>
+      <c r="AM41" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C41,0,"","auto")</f>
+        <v>-274</v>
+      </c>
+      <c r="AN41" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C41,0,"","auto")</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="42" spans="2:40">
       <c r="B42" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1249,7 +1249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1340,9 +1339,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1364,9 +1361,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1667,7 +1662,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1676,9 +1670,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1686,7 +1678,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1695,9 +1686,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2115,7 +2104,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3837,7 +3825,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3902,7 +3889,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3911,9 +3897,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3921,7 +3905,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3930,9 +3913,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4232,7 +4213,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4241,9 +4221,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4251,7 +4229,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4260,9 +4237,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4560,7 +4535,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4569,9 +4543,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4579,7 +4551,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4588,9 +4559,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4891,7 +4860,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4900,9 +4868,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4910,7 +4876,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4919,9 +4884,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5338,7 +5301,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6375,7 +6337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6440,7 +6401,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6449,9 +6409,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6459,7 +6417,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6468,9 +6425,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6770,7 +6725,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6779,9 +6733,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7199,7 +7151,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11982,7 +11933,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17027,43 +16978,141 @@
       <c r="C42" s="13">
         <v>46063</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
+      <c r="D42" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C42,0,"","auto")</f>
+        <v>212.72000122070313</v>
+      </c>
+      <c r="E42" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C42,0,"","auto")</f>
+        <v>471.44000244140625</v>
+      </c>
+      <c r="F42" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C42,0,"","auto")</f>
+        <v>408949</v>
+      </c>
+      <c r="G42" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C42,0,"","auto")</f>
+        <v>152483</v>
+      </c>
+      <c r="H42" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C42,0,"","auto")</f>
+        <v>45.610000610351563</v>
+      </c>
+      <c r="I42" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C42,0,"","auto")</f>
+        <v>52.630001068115234</v>
+      </c>
+      <c r="J42" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C42,0,"","auto")</f>
+        <v>68540</v>
+      </c>
+      <c r="K42" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C42,0,"","auto")</f>
+        <v>175283</v>
+      </c>
+      <c r="L42" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C42,0,"","auto")</f>
+        <v>1175.199951171875</v>
+      </c>
+      <c r="M42" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C42,0,"","auto")</f>
+        <v>1585.25</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" ref="N42" si="22">(J42+F42-F41)/(D42*H42/100)/1000</f>
+        <v>0.62442800198147663</v>
+      </c>
+      <c r="O42" s="8">
+        <f t="shared" ref="O42" si="23">(K42+G42-G41)/(E42*I42/100)/1000</f>
+        <v>0.62443857980007578</v>
+      </c>
+      <c r="P42" s="8">
+        <f t="shared" ref="P42" si="24">((J42+K42)+F42+G42-F41-G41)/(D42*H42/100+E42*I42/100)/1000</f>
+        <v>0.62443560629536476</v>
+      </c>
+      <c r="Q42" s="8">
+        <f t="shared" ref="Q42" si="25">P42*H42*10</f>
+        <v>284.80508384256837</v>
+      </c>
+      <c r="R42" s="8">
+        <f t="shared" ref="R42" si="26">P42*I42*10</f>
+        <v>328.64046626294231</v>
+      </c>
+      <c r="S42" s="4">
+        <f t="shared" ref="S42" si="27">((J42+K42)+F42+G42-F41-G41)/(D42+E42)</f>
+        <v>315.01110682646583</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" ref="T42" si="28">IF(AL42&lt;3000,0,AL42)</f>
+        <v>261643</v>
+      </c>
+      <c r="U42" s="5">
+        <f t="shared" ref="U42" si="29">IF(AM42&lt;3000,0,AM42)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" ref="V42" si="30">IF(AN42&lt;3000,0,AN42)</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X42" s="7">
+        <f t="shared" ref="X42" si="31">J42+K42</f>
+        <v>243823</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA42" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB42" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC42" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE42" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF42" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG42" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH42" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="4">
+        <f t="shared" ref="AK42" si="32">SUM(AH42:AJ42)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL42" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C42,0,"","auto")</f>
+        <v>261643</v>
+      </c>
+      <c r="AM42" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C42,0,"","auto")</f>
+        <v>-274</v>
+      </c>
+      <c r="AN42" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C42,0,"","auto")</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="43" spans="2:40">
       <c r="B43" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1249,6 +1249,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1339,7 +1340,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1361,7 +1364,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1662,6 +1667,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1670,7 +1676,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1678,6 +1686,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1686,7 +1695,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2104,6 +2115,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2210,6 +2222,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2274,6 +2287,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2282,7 +2296,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-B8D4-4943-8087-5038E5DF57F4}"/>
                 </c:ext>
@@ -2290,6 +2306,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2298,7 +2315,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2599,6 +2618,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2634,7 +2654,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2933,6 +2955,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2941,7 +2964,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2963,7 +2988,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3265,6 +3292,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3300,7 +3328,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3719,6 +3749,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3825,6 +3856,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3889,6 +3921,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3897,7 +3930,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3905,6 +3940,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3913,7 +3949,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4213,6 +4251,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4221,7 +4260,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4229,6 +4270,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4237,7 +4279,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4535,6 +4579,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4543,7 +4588,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4551,6 +4598,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4559,7 +4607,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4860,6 +4910,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4868,7 +4919,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4876,6 +4929,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4884,7 +4938,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5301,6 +5357,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5412,6 +5469,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5476,6 +5534,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5484,7 +5543,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5492,6 +5553,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5500,7 +5562,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5800,6 +5864,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5808,7 +5873,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -6226,6 +6293,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6337,6 +6405,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6401,6 +6470,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6409,7 +6479,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6417,6 +6489,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6425,7 +6498,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6725,6 +6800,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6733,7 +6809,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7151,6 +7229,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7257,6 +7336,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7321,6 +7401,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7329,7 +7410,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-E73E-4A56-8161-D7588DDD0A4F}"/>
                 </c:ext>
@@ -7337,6 +7420,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7345,7 +7429,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -7645,6 +7731,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7653,7 +7740,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -8071,6 +8160,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11933,7 +12023,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16979,86 +17069,66 @@
         <v>46063</v>
       </c>
       <c r="D42" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C42,0,"","auto")</f>
         <v>212.72000122070313</v>
       </c>
       <c r="E42" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C42,0,"","auto")</f>
         <v>471.44000244140625</v>
       </c>
       <c r="F42" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C42,0,"","auto")</f>
         <v>408949</v>
       </c>
       <c r="G42" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C42,0,"","auto")</f>
         <v>152483</v>
       </c>
       <c r="H42" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C42,0,"","auto")</f>
         <v>45.610000610351563</v>
       </c>
       <c r="I42" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C42,0,"","auto")</f>
         <v>52.630001068115234</v>
       </c>
       <c r="J42" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C42,0,"","auto")</f>
         <v>68540</v>
       </c>
       <c r="K42" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C42,0,"","auto")</f>
         <v>175283</v>
       </c>
       <c r="L42" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C42,0,"","auto")</f>
         <v>1175.199951171875</v>
       </c>
       <c r="M42" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C42,0,"","auto")</f>
         <v>1585.25</v>
       </c>
       <c r="N42" s="8">
-        <f t="shared" ref="N42" si="22">(J42+F42-F41)/(D42*H42/100)/1000</f>
         <v>0.62442800198147663</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" ref="O42" si="23">(K42+G42-G41)/(E42*I42/100)/1000</f>
         <v>0.62443857980007578</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" ref="P42" si="24">((J42+K42)+F42+G42-F41-G41)/(D42*H42/100+E42*I42/100)/1000</f>
         <v>0.62443560629536476</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" ref="Q42" si="25">P42*H42*10</f>
         <v>284.80508384256837</v>
       </c>
       <c r="R42" s="8">
-        <f t="shared" ref="R42" si="26">P42*I42*10</f>
         <v>328.64046626294231</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" ref="S42" si="27">((J42+K42)+F42+G42-F41-G41)/(D42+E42)</f>
         <v>315.01110682646583</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" ref="T42" si="28">IF(AL42&lt;3000,0,AL42)</f>
         <v>261643</v>
       </c>
       <c r="U42" s="5">
-        <f t="shared" ref="U42" si="29">IF(AM42&lt;3000,0,AM42)</f>
         <v>0</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" ref="V42" si="30">IF(AN42&lt;3000,0,AN42)</f>
         <v>0</v>
       </c>
       <c r="W42" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X42" s="7">
-        <f t="shared" ref="X42" si="31">J42+K42</f>
         <v>243823</v>
       </c>
       <c r="Y42" s="4">
@@ -17098,19 +17168,15 @@
         <v>0</v>
       </c>
       <c r="AK42" s="4">
-        <f t="shared" ref="AK42" si="32">SUM(AH42:AJ42)</f>
         <v>250000</v>
       </c>
       <c r="AL42" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C42,0,"","auto")</f>
         <v>261643</v>
       </c>
       <c r="AM42" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C42,0,"","auto")</f>
         <v>-274</v>
       </c>
       <c r="AN42" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C42,0,"","auto")</f>
         <v>31</v>
       </c>
     </row>
@@ -17121,43 +17187,141 @@
       <c r="C43" s="13">
         <v>46064</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
-      <c r="AM43" s="4"/>
-      <c r="AN43" s="4"/>
+      <c r="D43" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C43,0,"","auto")</f>
+        <v>212.78999328613281</v>
+      </c>
+      <c r="E43" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C43,0,"","auto")</f>
+        <v>580.59002685546875</v>
+      </c>
+      <c r="F43" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C43,0,"","auto")</f>
+        <v>413692</v>
+      </c>
+      <c r="G43" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C43,0,"","auto")</f>
+        <v>167473</v>
+      </c>
+      <c r="H43" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C43,0,"","auto")</f>
+        <v>45.580001831054688</v>
+      </c>
+      <c r="I43" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C43,0,"","auto")</f>
+        <v>52.799999237060547</v>
+      </c>
+      <c r="J43" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C43,0,"","auto")</f>
+        <v>59394</v>
+      </c>
+      <c r="K43" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C43,0,"","auto")</f>
+        <v>187725</v>
+      </c>
+      <c r="L43" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C43,0,"","auto")</f>
+        <v>1398.0999755859375</v>
+      </c>
+      <c r="M43" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C43,0,"","auto")</f>
+        <v>1483.93994140625</v>
+      </c>
+      <c r="N43" s="8">
+        <f t="shared" ref="N43" si="22">(J43+F43-F42)/(D43*H43/100)/1000</f>
+        <v>0.66127652060033726</v>
+      </c>
+      <c r="O43" s="8">
+        <f t="shared" ref="O43" si="23">(K43+G43-G42)/(E43*I43/100)/1000</f>
+        <v>0.661275447443463</v>
+      </c>
+      <c r="P43" s="8">
+        <f t="shared" ref="P43" si="24">((J43+K43)+F43+G43-F42-G42)/(D43*H43/100+E43*I43/100)/1000</f>
+        <v>0.66127570537286795</v>
+      </c>
+      <c r="Q43" s="8">
+        <f t="shared" ref="Q43" si="25">P43*H43*10</f>
+        <v>301.40947861727301</v>
+      </c>
+      <c r="R43" s="8">
+        <f t="shared" ref="R43" si="26">P43*I43*10</f>
+        <v>349.15356739174103</v>
+      </c>
+      <c r="S43" s="4">
+        <f t="shared" ref="S43" si="27">((J43+K43)+F43+G43-F42-G42)/(D43+E43)</f>
+        <v>336.3482734949294</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" ref="T43" si="28">IF(AL43&lt;3000,0,AL43)</f>
+        <v>246596</v>
+      </c>
+      <c r="U43" s="5">
+        <f t="shared" ref="U43" si="29">IF(AM43&lt;3000,0,AM43)</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" ref="V43" si="30">IF(AN43&lt;3000,0,AN43)</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X43" s="7">
+        <f t="shared" ref="X43" si="31">J43+K43</f>
+        <v>247119</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z43" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA43" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB43" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC43" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE43" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF43" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG43" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH43" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="4">
+        <f t="shared" ref="AK43" si="32">SUM(AH43:AJ43)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL43" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C43,0,"","auto")</f>
+        <v>246596</v>
+      </c>
+      <c r="AM43" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C43,0,"","auto")</f>
+        <v>-2773</v>
+      </c>
+      <c r="AN43" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C43,0,"","auto")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:40">
       <c r="B44" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1249,7 +1249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1340,9 +1339,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1364,9 +1361,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1667,7 +1662,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1676,9 +1670,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1686,7 +1678,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1695,9 +1686,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2115,7 +2104,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2222,7 +2210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2287,7 +2274,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2296,9 +2282,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-B8D4-4943-8087-5038E5DF57F4}"/>
                 </c:ext>
@@ -2306,7 +2290,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2315,9 +2298,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2618,7 +2599,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2654,9 +2634,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2955,7 +2933,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2964,9 +2941,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2988,9 +2963,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3292,7 +3265,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3328,9 +3300,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3749,7 +3719,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3856,7 +3825,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3921,7 +3889,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3930,9 +3897,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3940,7 +3905,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3949,9 +3913,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4251,7 +4213,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4260,9 +4221,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4270,7 +4229,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4279,9 +4237,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4579,7 +4535,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4588,9 +4543,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4598,7 +4551,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4607,9 +4559,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4910,7 +4860,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4919,9 +4868,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4929,7 +4876,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4938,9 +4884,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5357,7 +5301,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5469,7 +5412,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5534,7 +5476,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5543,9 +5484,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5553,7 +5492,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5562,9 +5500,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5864,7 +5800,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5873,9 +5808,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -6293,7 +6226,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6405,7 +6337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6470,7 +6401,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6479,9 +6409,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6489,7 +6417,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6498,9 +6425,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6800,7 +6725,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6809,9 +6733,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7229,7 +7151,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7336,7 +7257,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7401,7 +7321,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7410,9 +7329,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-E73E-4A56-8161-D7588DDD0A4F}"/>
                 </c:ext>
@@ -7420,7 +7337,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7429,9 +7345,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -7731,7 +7645,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7740,9 +7653,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -8160,7 +8071,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12023,7 +11933,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
+      <selection pane="bottomRight" activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17188,86 +17098,66 @@
         <v>46064</v>
       </c>
       <c r="D43" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C43,0,"","auto")</f>
         <v>212.78999328613281</v>
       </c>
       <c r="E43" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C43,0,"","auto")</f>
         <v>580.59002685546875</v>
       </c>
       <c r="F43" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C43,0,"","auto")</f>
         <v>413692</v>
       </c>
       <c r="G43" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C43,0,"","auto")</f>
         <v>167473</v>
       </c>
       <c r="H43" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C43,0,"","auto")</f>
         <v>45.580001831054688</v>
       </c>
       <c r="I43" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C43,0,"","auto")</f>
         <v>52.799999237060547</v>
       </c>
       <c r="J43" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C43,0,"","auto")</f>
         <v>59394</v>
       </c>
       <c r="K43" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C43,0,"","auto")</f>
         <v>187725</v>
       </c>
       <c r="L43" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C43,0,"","auto")</f>
         <v>1398.0999755859375</v>
       </c>
       <c r="M43" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C43,0,"","auto")</f>
         <v>1483.93994140625</v>
       </c>
       <c r="N43" s="8">
-        <f t="shared" ref="N43" si="22">(J43+F43-F42)/(D43*H43/100)/1000</f>
         <v>0.66127652060033726</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" ref="O43" si="23">(K43+G43-G42)/(E43*I43/100)/1000</f>
         <v>0.661275447443463</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" ref="P43" si="24">((J43+K43)+F43+G43-F42-G42)/(D43*H43/100+E43*I43/100)/1000</f>
         <v>0.66127570537286795</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" ref="Q43" si="25">P43*H43*10</f>
         <v>301.40947861727301</v>
       </c>
       <c r="R43" s="8">
-        <f t="shared" ref="R43" si="26">P43*I43*10</f>
         <v>349.15356739174103</v>
       </c>
       <c r="S43" s="4">
-        <f t="shared" ref="S43" si="27">((J43+K43)+F43+G43-F42-G42)/(D43+E43)</f>
         <v>336.3482734949294</v>
       </c>
       <c r="T43" s="5">
-        <f t="shared" ref="T43" si="28">IF(AL43&lt;3000,0,AL43)</f>
         <v>246596</v>
       </c>
       <c r="U43" s="5">
-        <f t="shared" ref="U43" si="29">IF(AM43&lt;3000,0,AM43)</f>
         <v>0</v>
       </c>
       <c r="V43" s="5">
-        <f t="shared" ref="V43" si="30">IF(AN43&lt;3000,0,AN43)</f>
         <v>0</v>
       </c>
       <c r="W43" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X43" s="7">
-        <f t="shared" ref="X43" si="31">J43+K43</f>
         <v>247119</v>
       </c>
       <c r="Y43" s="4">
@@ -17307,19 +17197,15 @@
         <v>0</v>
       </c>
       <c r="AK43" s="4">
-        <f t="shared" ref="AK43" si="32">SUM(AH43:AJ43)</f>
         <v>250000</v>
       </c>
       <c r="AL43" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C43,0,"","auto")</f>
         <v>246596</v>
       </c>
       <c r="AM43" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C43,0,"","auto")</f>
         <v>-2773</v>
       </c>
       <c r="AN43" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C43,0,"","auto")</f>
         <v>0</v>
       </c>
     </row>
@@ -17330,43 +17216,141 @@
       <c r="C44" s="13">
         <v>46065</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
-      <c r="AH44" s="4"/>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
-      <c r="AM44" s="4"/>
-      <c r="AN44" s="4"/>
+      <c r="D44" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C44,0,"","auto")</f>
+        <v>202.47000122070313</v>
+      </c>
+      <c r="E44" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C44,0,"","auto")</f>
+        <v>564.16998291015625</v>
+      </c>
+      <c r="F44" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C44,0,"","auto")</f>
+        <v>409230</v>
+      </c>
+      <c r="G44" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C44,0,"","auto")</f>
+        <v>153168</v>
+      </c>
+      <c r="H44" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C44,0,"","auto")</f>
+        <v>45.889999389648438</v>
+      </c>
+      <c r="I44" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C44,0,"","auto")</f>
+        <v>52.799999237060547</v>
+      </c>
+      <c r="J44" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C44,0,"","auto")</f>
+        <v>60988</v>
+      </c>
+      <c r="K44" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C44,0,"","auto")</f>
+        <v>195528</v>
+      </c>
+      <c r="L44" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C44,0,"","auto")</f>
+        <v>1593.9000244140625</v>
+      </c>
+      <c r="M44" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C44,0,"","auto")</f>
+        <v>984.69000244140625</v>
+      </c>
+      <c r="N44" s="8">
+        <f t="shared" ref="N44" si="22">(J44+F44-F43)/(D44*H44/100)/1000</f>
+        <v>0.60837241900634886</v>
+      </c>
+      <c r="O44" s="8">
+        <f t="shared" ref="O44" si="23">(K44+G44-G43)/(E44*I44/100)/1000</f>
+        <v>0.60837228875044636</v>
+      </c>
+      <c r="P44" s="8">
+        <f t="shared" ref="P44" si="24">((J44+K44)+F44+G44-F43-G43)/(D44*H44/100+E44*I44/100)/1000</f>
+        <v>0.60837231971942607</v>
+      </c>
+      <c r="Q44" s="8">
+        <f t="shared" ref="Q44" si="25">P44*H44*10</f>
+        <v>279.18205380603467</v>
+      </c>
+      <c r="R44" s="8">
+        <f t="shared" ref="R44" si="26">P44*I44*10</f>
+        <v>321.22058017034453</v>
+      </c>
+      <c r="S44" s="4">
+        <f t="shared" ref="S44" si="27">((J44+K44)+F44+G44-F43-G43)/(D44+E44)</f>
+        <v>310.11818444290549</v>
+      </c>
+      <c r="T44" s="5">
+        <f t="shared" ref="T44" si="28">IF(AL44&lt;3000,0,AL44)</f>
+        <v>246056</v>
+      </c>
+      <c r="U44" s="5">
+        <f t="shared" ref="U44" si="29">IF(AM44&lt;3000,0,AM44)</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" ref="V44" si="30">IF(AN44&lt;3000,0,AN44)</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X44" s="7">
+        <f t="shared" ref="X44" si="31">J44+K44</f>
+        <v>256516</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA44" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB44" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC44" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF44" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG44" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH44" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="4">
+        <f t="shared" ref="AK44" si="32">SUM(AH44:AJ44)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL44" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C44,0,"","auto")</f>
+        <v>246056</v>
+      </c>
+      <c r="AM44" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C44,0,"","auto")</f>
+        <v>1063</v>
+      </c>
+      <c r="AN44" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C44,0,"","auto")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:40">
       <c r="B45" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1249,6 +1249,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1339,7 +1340,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1361,7 +1364,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1662,6 +1667,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1670,7 +1676,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1678,6 +1686,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1686,7 +1695,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2104,6 +2115,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2210,6 +2222,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2274,6 +2287,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2282,7 +2296,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-B8D4-4943-8087-5038E5DF57F4}"/>
                 </c:ext>
@@ -2290,6 +2306,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2298,7 +2315,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2599,6 +2618,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2634,7 +2654,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2933,6 +2955,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2941,7 +2964,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2963,7 +2988,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3265,6 +3292,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3300,7 +3328,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3719,6 +3749,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3825,6 +3856,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3889,6 +3921,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3897,7 +3930,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3905,6 +3940,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3913,7 +3949,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4213,6 +4251,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4221,7 +4260,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4229,6 +4270,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4237,7 +4279,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4535,6 +4579,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4543,7 +4588,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4551,6 +4598,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4559,7 +4607,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4860,6 +4910,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4868,7 +4919,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4876,6 +4929,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4884,7 +4938,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5301,6 +5357,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5412,6 +5469,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5476,6 +5534,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5484,7 +5543,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5492,6 +5553,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5500,7 +5562,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5800,6 +5864,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5808,7 +5873,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -6226,6 +6293,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6337,6 +6405,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6401,6 +6470,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6409,7 +6479,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6417,6 +6489,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6425,7 +6498,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6725,6 +6800,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6733,7 +6809,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7151,6 +7229,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7257,6 +7336,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7321,6 +7401,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7329,7 +7410,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-E73E-4A56-8161-D7588DDD0A4F}"/>
                 </c:ext>
@@ -7337,6 +7420,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7345,7 +7429,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -7645,6 +7731,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7653,7 +7740,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -8071,6 +8160,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11930,10 +12020,10 @@
   <dimension ref="A1:BL92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U53" sqref="U53"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16455,86 +16545,66 @@
         <v>46059</v>
       </c>
       <c r="D38" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C38,0,"","auto")</f>
         <v>267.52999877929688</v>
       </c>
       <c r="E38" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C38,0,"","auto")</f>
         <v>540.44000244140625</v>
       </c>
       <c r="F38" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C38,0,"","auto")</f>
         <v>421670</v>
       </c>
       <c r="G38" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C38,0,"","auto")</f>
         <v>189995</v>
       </c>
       <c r="H38" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C38,0,"","auto")</f>
         <v>45.75</v>
       </c>
       <c r="I38" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C38,0,"","auto")</f>
         <v>53.220001220703125</v>
       </c>
       <c r="J38" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C38,0,"","auto")</f>
         <v>74605</v>
       </c>
       <c r="K38" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C38,0,"","auto")</f>
         <v>175317</v>
       </c>
       <c r="L38" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C38,0,"","auto")</f>
         <v>1528.800048828125</v>
       </c>
       <c r="M38" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C38,0,"","auto")</f>
         <v>1389.8699951171875</v>
       </c>
       <c r="N38" s="8">
-        <f t="shared" ref="N38" si="0">(J38+F38-F37)/(D38*H38/100)/1000</f>
         <v>0.61761522762613918</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" ref="O38" si="1">(K38+G38-G37)/(E38*I38/100)/1000</f>
         <v>0.61760884551520856</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" ref="P38" si="2">((J38+K38)+F38+G38-F37-G37)/(D38*H38/100+E38*I38/100)/1000</f>
         <v>0.61761075065089277</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" ref="Q38" si="3">P38*H38*10</f>
         <v>282.55691842278344</v>
       </c>
       <c r="R38" s="8">
-        <f t="shared" ref="R38" si="4">P38*I38*10</f>
         <v>328.69244903559888</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" ref="S38" si="5">((J38+K38)+F38+G38-F37-G37)/(D38+E38)</f>
         <v>313.41633924206553</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" ref="T38" si="6">IF(AL38&lt;3000,0,AL38)</f>
         <v>214459</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" ref="U38" si="7">IF(AM38&lt;3000,0,AM38)</f>
         <v>0</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" ref="V38" si="8">IF(AN38&lt;3000,0,AN38)</f>
         <v>0</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X38" s="7">
-        <f t="shared" ref="X38" si="9">J38+K38</f>
         <v>249922</v>
       </c>
       <c r="Y38" s="4">
@@ -16574,19 +16644,15 @@
         <v>0</v>
       </c>
       <c r="AK38" s="4">
-        <f t="shared" ref="AK38" si="10">SUM(AH38:AJ38)</f>
         <v>250000</v>
       </c>
       <c r="AL38" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C38,0,"","auto")</f>
         <v>214459</v>
       </c>
       <c r="AM38" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C38,0,"","auto")</f>
         <v>274</v>
       </c>
       <c r="AN38" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C38,0,"","auto")</f>
         <v>-90</v>
       </c>
     </row>
@@ -16836,86 +16902,66 @@
         <v>46062</v>
       </c>
       <c r="D41" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C41,0,"","auto")</f>
         <v>325.8699951171875</v>
       </c>
       <c r="E41" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C41,0,"","auto")</f>
         <v>532.15997314453125</v>
       </c>
       <c r="F41" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C41,0,"","auto")</f>
         <v>416906</v>
       </c>
       <c r="G41" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C41,0,"","auto")</f>
         <v>172831</v>
       </c>
       <c r="H41" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C41,0,"","auto")</f>
         <v>43.009998321533203</v>
       </c>
       <c r="I41" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C41,0,"","auto")</f>
         <v>52.189998626708984</v>
       </c>
       <c r="J41" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C41,0,"","auto")</f>
         <v>87671</v>
       </c>
       <c r="K41" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C41,0,"","auto")</f>
         <v>173729</v>
       </c>
       <c r="L41" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C41,0,"","auto")</f>
         <v>1141.699951171875</v>
       </c>
       <c r="M41" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C41,0,"","auto")</f>
         <v>1405.5400390625</v>
       </c>
       <c r="N41" s="8">
-        <f t="shared" ref="N41" si="11">(J41+F41-F40)/(D41*H41/100)/1000</f>
         <v>0.58291192636765532</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" ref="O41" si="12">(K41+G41-G40)/(E41*I41/100)/1000</f>
         <v>0.58290967337600053</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" ref="P41" si="13">((J41+K41)+F41+G41-F40-G40)/(D41*H41/100+E41*I41/100)/1000</f>
         <v>0.58291042900810974</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" ref="Q41" si="14">P41*H41*10</f>
         <v>250.70976573242999</v>
       </c>
       <c r="R41" s="8">
-        <f t="shared" ref="R41" si="15">P41*I41*10</f>
         <v>304.22094489427593</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" ref="S41" si="16">((J41+K41)+F41+G41-F40-G40)/(D41+E41)</f>
         <v>283.89800940577237</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" ref="T41" si="17">IF(AL41&lt;3000,0,AL41)</f>
         <v>261643</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" ref="U41" si="18">IF(AM41&lt;3000,0,AM41)</f>
         <v>0</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" ref="V41" si="19">IF(AN41&lt;3000,0,AN41)</f>
         <v>0</v>
       </c>
       <c r="W41" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X41" s="7">
-        <f t="shared" ref="X41" si="20">J41+K41</f>
         <v>261400</v>
       </c>
       <c r="Y41" s="4">
@@ -16955,19 +17001,15 @@
         <v>0</v>
       </c>
       <c r="AK41" s="4">
-        <f t="shared" ref="AK41" si="21">SUM(AH41:AJ41)</f>
         <v>250000</v>
       </c>
       <c r="AL41" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C41,0,"","auto")</f>
         <v>261643</v>
       </c>
       <c r="AM41" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C41,0,"","auto")</f>
         <v>-274</v>
       </c>
       <c r="AN41" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C41,0,"","auto")</f>
         <v>31</v>
       </c>
     </row>
@@ -17217,86 +17259,66 @@
         <v>46065</v>
       </c>
       <c r="D44" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C44,0,"","auto")</f>
         <v>202.47000122070313</v>
       </c>
       <c r="E44" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C44,0,"","auto")</f>
         <v>564.16998291015625</v>
       </c>
       <c r="F44" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C44,0,"","auto")</f>
         <v>409230</v>
       </c>
       <c r="G44" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C44,0,"","auto")</f>
         <v>153168</v>
       </c>
       <c r="H44" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C44,0,"","auto")</f>
         <v>45.889999389648438</v>
       </c>
       <c r="I44" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C44,0,"","auto")</f>
         <v>52.799999237060547</v>
       </c>
       <c r="J44" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C44,0,"","auto")</f>
         <v>60988</v>
       </c>
       <c r="K44" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C44,0,"","auto")</f>
         <v>195528</v>
       </c>
       <c r="L44" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C44,0,"","auto")</f>
         <v>1593.9000244140625</v>
       </c>
       <c r="M44" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C44,0,"","auto")</f>
         <v>984.69000244140625</v>
       </c>
       <c r="N44" s="8">
-        <f t="shared" ref="N44" si="22">(J44+F44-F43)/(D44*H44/100)/1000</f>
         <v>0.60837241900634886</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" ref="O44" si="23">(K44+G44-G43)/(E44*I44/100)/1000</f>
         <v>0.60837228875044636</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" ref="P44" si="24">((J44+K44)+F44+G44-F43-G43)/(D44*H44/100+E44*I44/100)/1000</f>
         <v>0.60837231971942607</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" ref="Q44" si="25">P44*H44*10</f>
         <v>279.18205380603467</v>
       </c>
       <c r="R44" s="8">
-        <f t="shared" ref="R44" si="26">P44*I44*10</f>
         <v>321.22058017034453</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" ref="S44" si="27">((J44+K44)+F44+G44-F43-G43)/(D44+E44)</f>
         <v>310.11818444290549</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" ref="T44" si="28">IF(AL44&lt;3000,0,AL44)</f>
         <v>246056</v>
       </c>
       <c r="U44" s="5">
-        <f t="shared" ref="U44" si="29">IF(AM44&lt;3000,0,AM44)</f>
         <v>0</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" ref="V44" si="30">IF(AN44&lt;3000,0,AN44)</f>
         <v>0</v>
       </c>
       <c r="W44" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X44" s="7">
-        <f t="shared" ref="X44" si="31">J44+K44</f>
         <v>256516</v>
       </c>
       <c r="Y44" s="4">
@@ -17336,19 +17358,15 @@
         <v>0</v>
       </c>
       <c r="AK44" s="4">
-        <f t="shared" ref="AK44" si="32">SUM(AH44:AJ44)</f>
         <v>250000</v>
       </c>
       <c r="AL44" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C44,0,"","auto")</f>
         <v>246056</v>
       </c>
       <c r="AM44" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C44,0,"","auto")</f>
         <v>1063</v>
       </c>
       <c r="AN44" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C44,0,"","auto")</f>
         <v>0</v>
       </c>
     </row>
@@ -17359,43 +17377,141 @@
       <c r="C45" s="13">
         <v>46066</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
-      <c r="AI45" s="4"/>
-      <c r="AJ45" s="4"/>
-      <c r="AK45" s="4"/>
-      <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
-      <c r="AN45" s="4"/>
+      <c r="D45" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C45,0,"","auto")</f>
+        <v>212.6300048828125</v>
+      </c>
+      <c r="E45" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C45,0,"","auto")</f>
+        <v>613.59002685546875</v>
+      </c>
+      <c r="F45" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C45,0,"","auto")</f>
+        <v>410518</v>
+      </c>
+      <c r="G45" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C45,0,"","auto")</f>
+        <v>157520</v>
+      </c>
+      <c r="H45" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C45,0,"","auto")</f>
+        <v>44.860000610351563</v>
+      </c>
+      <c r="I45" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C45,0,"","auto")</f>
+        <v>52.540000915527344</v>
+      </c>
+      <c r="J45" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C45,0,"","auto")</f>
+        <v>58943</v>
+      </c>
+      <c r="K45" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C45,0,"","auto")</f>
+        <v>199213</v>
+      </c>
+      <c r="L45" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C45,0,"","auto")</f>
+        <v>1093.699951171875</v>
+      </c>
+      <c r="M45" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C45,0,"","auto")</f>
+        <v>1078.25</v>
+      </c>
+      <c r="N45" s="8">
+        <f t="shared" ref="N45" si="0">(J45+F45-F44)/(D45*H45/100)/1000</f>
+        <v>0.63144604785354053</v>
+      </c>
+      <c r="O45" s="8">
+        <f t="shared" ref="O45" si="1">(K45+G45-G44)/(E45*I45/100)/1000</f>
+        <v>0.6314438553715096</v>
+      </c>
+      <c r="P45" s="8">
+        <f t="shared" ref="P45" si="2">((J45+K45)+F45+G45-F44-G44)/(D45*H45/100+E45*I45/100)/1000</f>
+        <v>0.63144435596678539</v>
+      </c>
+      <c r="Q45" s="8">
+        <f t="shared" ref="Q45" si="3">P45*H45*10</f>
+        <v>283.26594194073044</v>
+      </c>
+      <c r="R45" s="8">
+        <f t="shared" ref="R45" si="4">P45*I45*10</f>
+        <v>331.76087040599475</v>
+      </c>
+      <c r="S45" s="4">
+        <f t="shared" ref="S45" si="5">((J45+K45)+F45+G45-F44-G44)/(D45+E45)</f>
+        <v>319.2805667577444</v>
+      </c>
+      <c r="T45" s="5">
+        <f t="shared" ref="T45" si="6">IF(AL45&lt;3000,0,AL45)</f>
+        <v>256026</v>
+      </c>
+      <c r="U45" s="5">
+        <f t="shared" ref="U45" si="7">IF(AM45&lt;3000,0,AM45)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <f t="shared" ref="V45" si="8">IF(AN45&lt;3000,0,AN45)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X45" s="7">
+        <f t="shared" ref="X45" si="9">J45+K45</f>
+        <v>258156</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA45" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB45" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC45" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE45" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF45" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG45" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH45" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="4">
+        <f t="shared" ref="AK45" si="10">SUM(AH45:AJ45)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL45" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C45,0,"","auto")</f>
+        <v>256026</v>
+      </c>
+      <c r="AM45" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C45,0,"","auto")</f>
+        <v>494</v>
+      </c>
+      <c r="AN45" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C45,0,"","auto")</f>
+        <v>-4</v>
+      </c>
     </row>
     <row r="46" spans="2:40">
       <c r="B46" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1249,7 +1249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1340,9 +1339,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1364,9 +1361,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1667,7 +1662,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1676,9 +1670,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1686,7 +1678,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1695,9 +1686,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2115,7 +2104,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2222,7 +2210,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2287,7 +2274,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2296,9 +2282,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-B8D4-4943-8087-5038E5DF57F4}"/>
                 </c:ext>
@@ -2306,7 +2290,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2315,9 +2298,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2618,7 +2599,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2654,9 +2634,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2955,7 +2933,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2964,9 +2941,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2988,9 +2963,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3292,7 +3265,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3328,9 +3300,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3749,7 +3719,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3856,7 +3825,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3921,7 +3889,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3930,9 +3897,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3940,7 +3905,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3949,9 +3913,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4251,7 +4213,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4260,9 +4221,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4270,7 +4229,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4279,9 +4237,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4579,7 +4535,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4588,9 +4543,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4598,7 +4551,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4607,9 +4559,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4910,7 +4860,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4919,9 +4868,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4929,7 +4876,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4938,9 +4884,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5357,7 +5301,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5469,7 +5412,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5534,7 +5476,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5543,9 +5484,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5553,7 +5492,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5562,9 +5500,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5864,7 +5800,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5873,9 +5808,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -6293,7 +6226,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6405,7 +6337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6470,7 +6401,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6479,9 +6409,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6489,7 +6417,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6498,9 +6425,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6800,7 +6725,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6809,9 +6733,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7229,7 +7151,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7336,7 +7257,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7401,7 +7321,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7410,9 +7329,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-E73E-4A56-8161-D7588DDD0A4F}"/>
                 </c:ext>
@@ -7420,7 +7337,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7429,9 +7345,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -7731,7 +7645,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7740,9 +7653,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -8160,7 +8071,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12023,7 +11933,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17520,43 +17430,141 @@
       <c r="C46" s="13">
         <v>46067</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="4"/>
-      <c r="AH46" s="4"/>
-      <c r="AI46" s="4"/>
-      <c r="AJ46" s="4"/>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
-      <c r="AN46" s="4"/>
+      <c r="D46" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C46,0,"","auto")</f>
+        <v>205.00999450683594</v>
+      </c>
+      <c r="E46" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C46,0,"","auto")</f>
+        <v>599.8900146484375</v>
+      </c>
+      <c r="F46" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C46,0,"","auto")</f>
+        <v>410915</v>
+      </c>
+      <c r="G46" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C46,0,"","auto")</f>
+        <v>158882</v>
+      </c>
+      <c r="H46" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C46,0,"","auto")</f>
+        <v>44.740001678466797</v>
+      </c>
+      <c r="I46" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C46,0,"","auto")</f>
+        <v>52.5</v>
+      </c>
+      <c r="J46" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C46,0,"","auto")</f>
+        <v>59181</v>
+      </c>
+      <c r="K46" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C46,0,"","auto")</f>
+        <v>203208</v>
+      </c>
+      <c r="L46" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C46,0,"","auto")</f>
+        <v>1325.9000244140625</v>
+      </c>
+      <c r="M46" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C46,0,"","auto")</f>
+        <v>1332.4100341796875</v>
+      </c>
+      <c r="N46" s="8">
+        <f t="shared" ref="N46" si="11">(J46+F46-F45)/(D46*H46/100)/1000</f>
+        <v>0.64955344439013407</v>
+      </c>
+      <c r="O46" s="8">
+        <f t="shared" ref="O46" si="12">(K46+G46-G45)/(E46*I46/100)/1000</f>
+        <v>0.64954763930434722</v>
+      </c>
+      <c r="P46" s="8">
+        <f t="shared" ref="P46" si="13">((J46+K46)+F46+G46-F45-G45)/(D46*H46/100+E46*I46/100)/1000</f>
+        <v>0.64954894861960699</v>
+      </c>
+      <c r="Q46" s="8">
+        <f t="shared" ref="Q46" si="14">P46*H46*10</f>
+        <v>290.60821051487562</v>
+      </c>
+      <c r="R46" s="8">
+        <f t="shared" ref="R46" si="15">P46*I46*10</f>
+        <v>341.01319802529366</v>
+      </c>
+      <c r="S46" s="4">
+        <f t="shared" ref="S46" si="16">((J46+K46)+F46+G46-F45-G45)/(D46+E46)</f>
+        <v>328.17492482975382</v>
+      </c>
+      <c r="T46" s="5">
+        <f t="shared" ref="T46" si="17">IF(AL46&lt;3000,0,AL46)</f>
+        <v>256026</v>
+      </c>
+      <c r="U46" s="5">
+        <f t="shared" ref="U46" si="18">IF(AM46&lt;3000,0,AM46)</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" ref="V46" si="19">IF(AN46&lt;3000,0,AN46)</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X46" s="7">
+        <f t="shared" ref="X46" si="20">J46+K46</f>
+        <v>262389</v>
+      </c>
+      <c r="Y46" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z46" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA46" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB46" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC46" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE46" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF46" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG46" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH46" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="4">
+        <f t="shared" ref="AK46" si="21">SUM(AH46:AJ46)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL46" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C46,0,"","auto")</f>
+        <v>256026</v>
+      </c>
+      <c r="AM46" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C46,0,"","auto")</f>
+        <v>494</v>
+      </c>
+      <c r="AN46" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C46,0,"","auto")</f>
+        <v>-4</v>
+      </c>
     </row>
     <row r="47" spans="2:40">
       <c r="B47" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1249,6 +1249,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1339,7 +1340,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1361,7 +1364,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1662,6 +1667,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1670,7 +1676,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1678,6 +1686,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1686,7 +1695,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2104,6 +2115,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3825,6 +3837,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3889,6 +3902,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3897,7 +3911,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3905,6 +3921,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3913,7 +3930,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4213,6 +4232,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4221,7 +4241,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4229,6 +4251,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4237,7 +4260,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4535,6 +4560,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4543,7 +4569,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4551,6 +4579,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4559,7 +4588,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4860,6 +4891,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4868,7 +4900,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4876,6 +4910,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4884,7 +4919,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5301,6 +5338,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6337,6 +6375,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6401,6 +6440,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6409,7 +6449,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6417,6 +6459,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6425,7 +6468,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6725,6 +6770,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6733,7 +6779,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7151,6 +7199,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11933,7 +11982,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P54" sqref="P54"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17573,43 +17622,141 @@
       <c r="C47" s="13">
         <v>46068</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-      <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
-      <c r="AI47" s="4"/>
-      <c r="AJ47" s="4"/>
-      <c r="AK47" s="4"/>
-      <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
-      <c r="AN47" s="4"/>
+      <c r="D47" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C47,0,"","auto")</f>
+        <v>211.64106750488281</v>
+      </c>
+      <c r="E47" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C47,0,"","auto")</f>
+        <v>554.2242431640625</v>
+      </c>
+      <c r="F47" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C47,0,"","auto")</f>
+        <v>405426.375</v>
+      </c>
+      <c r="G47" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C47,0,"","auto")</f>
+        <v>142202.21875</v>
+      </c>
+      <c r="H47" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C47,0,"","auto")</f>
+        <v>45.129909515380859</v>
+      </c>
+      <c r="I47" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C47,0,"","auto")</f>
+        <v>52.380168914794922</v>
+      </c>
+      <c r="J47" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C47,0,"","auto")</f>
+        <v>60646.63671875</v>
+      </c>
+      <c r="K47" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C47,0,"","auto")</f>
+        <v>184332.25</v>
+      </c>
+      <c r="L47" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C47,0,"","auto")</f>
+        <v>1266.32861328125</v>
+      </c>
+      <c r="M47" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C47,0,"","auto")</f>
+        <v>1257.6495361328125</v>
+      </c>
+      <c r="N47" s="8">
+        <f t="shared" ref="N47:N48" si="22">(J47+F47-F46)/(D47*H47/100)/1000</f>
+        <v>0.57748963875727877</v>
+      </c>
+      <c r="O47" s="8">
+        <f t="shared" ref="O47:O48" si="23">(K47+G47-G46)/(E47*I47/100)/1000</f>
+        <v>0.57750738120351541</v>
+      </c>
+      <c r="P47" s="8">
+        <f t="shared" ref="P47:P48" si="24">((J47+K47)+F47+G47-F46-G46)/(D47*H47/100+E47*I47/100)/1000</f>
+        <v>0.57750298885770202</v>
+      </c>
+      <c r="Q47" s="8">
+        <f t="shared" ref="Q47:Q48" si="25">P47*H47*10</f>
+        <v>260.62657632010092</v>
+      </c>
+      <c r="R47" s="8">
+        <f t="shared" ref="R47:R48" si="26">P47*I47*10</f>
+        <v>302.49704105165358</v>
+      </c>
+      <c r="S47" s="4">
+        <f t="shared" ref="S47:S48" si="27">((J47+K47)+F47+G47-F46-G46)/(D47+E47)</f>
+        <v>290.92645582045765</v>
+      </c>
+      <c r="T47" s="5">
+        <f t="shared" ref="T47:T48" si="28">IF(AL47&lt;3000,0,AL47)</f>
+        <v>244544.515625</v>
+      </c>
+      <c r="U47" s="5">
+        <f t="shared" ref="U47:U48" si="29">IF(AM47&lt;3000,0,AM47)</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" ref="V47:V48" si="30">IF(AN47&lt;3000,0,AN47)</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X47" s="7">
+        <f t="shared" ref="X47:X48" si="31">J47+K47</f>
+        <v>244978.88671875</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA47" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB47" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC47" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE47" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF47" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG47" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH47" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="4">
+        <f t="shared" ref="AK47:AK48" si="32">SUM(AH47:AJ47)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL47" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C47,0,"","auto")</f>
+        <v>244544.515625</v>
+      </c>
+      <c r="AM47" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C47,0,"","auto")</f>
+        <v>511.9976806640625</v>
+      </c>
+      <c r="AN47" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C47,0,"","auto")</f>
+        <v>-48.999271392822266</v>
+      </c>
     </row>
     <row r="48" spans="2:40">
       <c r="B48" s="20">
@@ -17618,43 +17765,141 @@
       <c r="C48" s="13">
         <v>46069</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
-      <c r="AH48" s="4"/>
-      <c r="AI48" s="4"/>
-      <c r="AJ48" s="4"/>
-      <c r="AK48" s="4"/>
-      <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
-      <c r="AN48" s="4"/>
+      <c r="D48" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C48,0,"","auto")</f>
+        <v>213.16999816894531</v>
+      </c>
+      <c r="E48" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C48,0,"","auto")</f>
+        <v>517.1400146484375</v>
+      </c>
+      <c r="F48" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C48,0,"","auto")</f>
+        <v>404525</v>
+      </c>
+      <c r="G48" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C48,0,"","auto")</f>
+        <v>139642</v>
+      </c>
+      <c r="H48" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C48,0,"","auto")</f>
+        <v>45</v>
+      </c>
+      <c r="I48" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C48,0,"","auto")</f>
+        <v>52.619998931884766</v>
+      </c>
+      <c r="J48" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C48,0,"","auto")</f>
+        <v>52931</v>
+      </c>
+      <c r="K48" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C48,0,"","auto")</f>
+        <v>150153</v>
+      </c>
+      <c r="L48" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C48,0,"","auto")</f>
+        <v>1307.4000244140625</v>
+      </c>
+      <c r="M48" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C48,0,"","auto")</f>
+        <v>1386.3800048828125</v>
+      </c>
+      <c r="N48" s="8">
+        <f t="shared" si="22"/>
+        <v>0.54239053282373517</v>
+      </c>
+      <c r="O48" s="8">
+        <f t="shared" si="23"/>
+        <v>0.54238308674951796</v>
+      </c>
+      <c r="P48" s="8">
+        <f t="shared" si="24"/>
+        <v>0.5423850274761336</v>
+      </c>
+      <c r="Q48" s="8">
+        <f t="shared" si="25"/>
+        <v>244.07326236426013</v>
+      </c>
+      <c r="R48" s="8">
+        <f t="shared" si="26"/>
+        <v>285.40299566464444</v>
+      </c>
+      <c r="S48" s="4">
+        <f t="shared" si="27"/>
+        <v>273.33927064740442</v>
+      </c>
+      <c r="T48" s="5">
+        <f t="shared" si="28"/>
+        <v>202759</v>
+      </c>
+      <c r="U48" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="5">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X48" s="7">
+        <f t="shared" si="31"/>
+        <v>203084</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z48" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA48" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB48" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC48" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE48" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF48" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG48" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH48" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="4">
+        <f t="shared" si="32"/>
+        <v>250000</v>
+      </c>
+      <c r="AL48" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C48,0,"","auto")</f>
+        <v>202759</v>
+      </c>
+      <c r="AM48" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C48,0,"","auto")</f>
+        <v>311</v>
+      </c>
+      <c r="AN48" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C48,0,"","auto")</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="49" spans="2:40">
       <c r="B49" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1249,7 +1249,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1340,9 +1339,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1364,9 +1361,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1667,7 +1662,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1676,9 +1670,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1686,7 +1678,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1695,9 +1686,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2115,7 +2104,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3837,7 +3825,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3902,7 +3889,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3911,9 +3897,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3921,7 +3905,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3930,9 +3913,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4232,7 +4213,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4241,9 +4221,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4251,7 +4229,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4260,9 +4237,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4560,7 +4535,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4569,9 +4543,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4579,7 +4551,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4588,9 +4559,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4891,7 +4860,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4900,9 +4868,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4910,7 +4876,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4919,9 +4884,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5338,7 +5301,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6375,7 +6337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6440,7 +6401,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6449,9 +6409,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6459,7 +6417,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6468,9 +6425,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6770,7 +6725,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6779,9 +6733,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7199,7 +7151,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11979,10 +11930,10 @@
   <dimension ref="A1:BL92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17908,43 +17859,141 @@
       <c r="C49" s="13">
         <v>46070</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-      <c r="AG49" s="4"/>
-      <c r="AH49" s="4"/>
-      <c r="AI49" s="4"/>
-      <c r="AJ49" s="4"/>
-      <c r="AK49" s="4"/>
-      <c r="AL49" s="4"/>
-      <c r="AM49" s="4"/>
-      <c r="AN49" s="4"/>
+      <c r="D49" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C49,0,"","auto")</f>
+        <v>201.67999267578125</v>
+      </c>
+      <c r="E49" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C49,0,"","auto")</f>
+        <v>601</v>
+      </c>
+      <c r="F49" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C49,0,"","auto")</f>
+        <v>405532</v>
+      </c>
+      <c r="G49" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C49,0,"","auto")</f>
+        <v>143088</v>
+      </c>
+      <c r="H49" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C49,0,"","auto")</f>
+        <v>45.310001373291016</v>
+      </c>
+      <c r="I49" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C49,0,"","auto")</f>
+        <v>51.990001678466797</v>
+      </c>
+      <c r="J49" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C49,0,"","auto")</f>
+        <v>56429</v>
+      </c>
+      <c r="K49" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C49,0,"","auto")</f>
+        <v>192946</v>
+      </c>
+      <c r="L49" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C49,0,"","auto")</f>
+        <v>1235.800048828125</v>
+      </c>
+      <c r="M49" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C49,0,"","auto")</f>
+        <v>762.9000244140625</v>
+      </c>
+      <c r="N49" s="8">
+        <f t="shared" ref="N49" si="33">(J49+F49-F48)/(D49*H49/100)/1000</f>
+        <v>0.62853185684558643</v>
+      </c>
+      <c r="O49" s="8">
+        <f t="shared" ref="O49" si="34">(K49+G49-G48)/(E49*I49/100)/1000</f>
+        <v>0.62853503332619365</v>
+      </c>
+      <c r="P49" s="8">
+        <f t="shared" ref="P49" si="35">((J49+K49)+F49+G49-F48-G48)/(D49*H49/100+E49*I49/100)/1000</f>
+        <v>0.62853431455185216</v>
+      </c>
+      <c r="Q49" s="8">
+        <f t="shared" ref="Q49" si="36">P49*H49*10</f>
+        <v>284.78890655504949</v>
+      </c>
+      <c r="R49" s="8">
+        <f t="shared" ref="R49" si="37">P49*I49*10</f>
+        <v>326.77500068524773</v>
+      </c>
+      <c r="S49" s="4">
+        <f t="shared" ref="S49" si="38">((J49+K49)+F49+G49-F48-G48)/(D49+E49)</f>
+        <v>316.22564697775675</v>
+      </c>
+      <c r="T49" s="5">
+        <f t="shared" ref="T49" si="39">IF(AL49&lt;3000,0,AL49)</f>
+        <v>249131</v>
+      </c>
+      <c r="U49" s="5">
+        <f t="shared" ref="U49" si="40">IF(AM49&lt;3000,0,AM49)</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="5">
+        <f t="shared" ref="V49" si="41">IF(AN49&lt;3000,0,AN49)</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X49" s="7">
+        <f t="shared" ref="X49" si="42">J49+K49</f>
+        <v>249375</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA49" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB49" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC49" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE49" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF49" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG49" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH49" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="4">
+        <f t="shared" ref="AK49" si="43">SUM(AH49:AJ49)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL49" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C49,0,"","auto")</f>
+        <v>249131</v>
+      </c>
+      <c r="AM49" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C49,0,"","auto")</f>
+        <v>302</v>
+      </c>
+      <c r="AN49" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C49,0,"","auto")</f>
+        <v>-58</v>
+      </c>
     </row>
     <row r="50" spans="2:40">
       <c r="B50" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -11933,7 +11933,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="Z54" sqref="Z54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18002,43 +18002,141 @@
       <c r="C50" s="13">
         <v>46071</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-      <c r="AG50" s="4"/>
-      <c r="AH50" s="4"/>
-      <c r="AI50" s="4"/>
-      <c r="AJ50" s="4"/>
-      <c r="AK50" s="4"/>
-      <c r="AL50" s="4"/>
-      <c r="AM50" s="4"/>
-      <c r="AN50" s="4"/>
+      <c r="D50" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C50,0,"","auto")</f>
+        <v>213.75</v>
+      </c>
+      <c r="E50" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C50,0,"","auto")</f>
+        <v>597.17999267578125</v>
+      </c>
+      <c r="F50" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C50,0,"","auto")</f>
+        <v>407936</v>
+      </c>
+      <c r="G50" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C50,0,"","auto")</f>
+        <v>150926</v>
+      </c>
+      <c r="H50" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C50,0,"","auto")</f>
+        <v>44.889999389648438</v>
+      </c>
+      <c r="I50" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C50,0,"","auto")</f>
+        <v>52.400001525878906</v>
+      </c>
+      <c r="J50" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C50,0,"","auto")</f>
+        <v>60511</v>
+      </c>
+      <c r="K50" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C50,0,"","auto")</f>
+        <v>197339</v>
+      </c>
+      <c r="L50" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C50,0,"","auto")</f>
+        <v>1499.9000244140625</v>
+      </c>
+      <c r="M50" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C50,0,"","auto")</f>
+        <v>1031.3699951171875</v>
+      </c>
+      <c r="N50" s="8">
+        <f t="shared" ref="N50" si="44">(J50+F50-F49)/(D50*H50/100)/1000</f>
+        <v>0.6556898758934353</v>
+      </c>
+      <c r="O50" s="8">
+        <f t="shared" ref="O50" si="45">(K50+G50-G49)/(E50*I50/100)/1000</f>
+        <v>0.65568028685748836</v>
+      </c>
+      <c r="P50" s="8">
+        <f t="shared" ref="P50" si="46">((J50+K50)+F50+G50-F49-G49)/(D50*H50/100+E50*I50/100)/1000</f>
+        <v>0.65568253715755065</v>
+      </c>
+      <c r="Q50" s="8">
+        <f t="shared" ref="Q50" si="47">P50*H50*10</f>
+        <v>294.33588692805591</v>
+      </c>
+      <c r="R50" s="8">
+        <f t="shared" ref="R50" si="48">P50*I50*10</f>
+        <v>343.57765947547807</v>
+      </c>
+      <c r="S50" s="4">
+        <f t="shared" ref="S50" si="49">((J50+K50)+F50+G50-F49-G49)/(D50+E50)</f>
+        <v>330.59820505021838</v>
+      </c>
+      <c r="T50" s="5">
+        <f t="shared" ref="T50" si="50">IF(AL50&lt;3000,0,AL50)</f>
+        <v>257516</v>
+      </c>
+      <c r="U50" s="5">
+        <f t="shared" ref="U50" si="51">IF(AM50&lt;3000,0,AM50)</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="5">
+        <f t="shared" ref="V50" si="52">IF(AN50&lt;3000,0,AN50)</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X50" s="7">
+        <f t="shared" ref="X50" si="53">J50+K50</f>
+        <v>257850</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z50" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA50" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB50" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC50" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE50" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF50" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG50" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH50" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="4">
+        <f t="shared" ref="AK50" si="54">SUM(AH50:AJ50)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL50" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C50,0,"","auto")</f>
+        <v>257516</v>
+      </c>
+      <c r="AM50" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C50,0,"","auto")</f>
+        <v>223</v>
+      </c>
+      <c r="AN50" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C50,0,"","auto")</f>
+        <v>111</v>
+      </c>
     </row>
     <row r="51" spans="2:40">
       <c r="B51" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1158,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1187,9 +1187,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,6 +1246,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1339,7 +1337,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1361,7 +1361,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1662,6 +1664,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1670,7 +1673,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1678,6 +1683,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1686,7 +1692,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2104,6 +2112,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2210,6 +2219,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2274,6 +2284,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2282,7 +2293,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-B8D4-4943-8087-5038E5DF57F4}"/>
                 </c:ext>
@@ -2290,6 +2303,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2298,7 +2312,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2599,6 +2615,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2634,7 +2651,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2933,6 +2952,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2941,7 +2961,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2963,7 +2985,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3265,6 +3289,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3300,7 +3325,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3719,6 +3746,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3825,6 +3853,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3889,6 +3918,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3897,7 +3927,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3905,6 +3937,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3913,7 +3946,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4213,6 +4248,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4221,7 +4257,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4229,6 +4267,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4237,7 +4276,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4535,6 +4576,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4543,7 +4585,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4551,6 +4595,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4559,7 +4604,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4860,6 +4907,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4868,7 +4916,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4876,6 +4926,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4884,7 +4935,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5301,6 +5354,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5412,6 +5466,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5476,6 +5531,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5484,7 +5540,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5492,6 +5550,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5500,7 +5559,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5800,6 +5861,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5808,7 +5870,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -6226,6 +6290,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6337,6 +6402,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6401,6 +6467,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6409,7 +6476,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6417,6 +6486,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6425,7 +6495,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6725,6 +6797,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6733,7 +6806,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7151,6 +7226,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7257,6 +7333,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7321,6 +7398,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7329,7 +7407,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-E73E-4A56-8161-D7588DDD0A4F}"/>
                 </c:ext>
@@ -7337,6 +7417,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7345,7 +7426,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -7645,6 +7728,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7653,7 +7737,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -8071,6 +8157,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11930,10 +12017,10 @@
   <dimension ref="A1:BL92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z54" sqref="Z54"/>
+      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12277,7 +12364,7 @@
       </c>
       <c r="AO3" s="12"/>
     </row>
-    <row r="4" spans="1:64" ht="16">
+    <row r="4" spans="1:64" ht="16" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -12403,28 +12490,28 @@
         <f>B33</f>
         <v>46053</v>
       </c>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="22"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="22"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="22"/>
-      <c r="BG4" s="22"/>
-      <c r="BH4" s="22"/>
-      <c r="BI4" s="22"/>
-      <c r="BJ4" s="22"/>
-      <c r="BK4" s="22"/>
-      <c r="BL4" s="22"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="21"/>
+      <c r="AZ4" s="21"/>
+      <c r="BA4" s="21"/>
+      <c r="BB4" s="21"/>
+      <c r="BC4" s="21"/>
+      <c r="BD4" s="21"/>
+      <c r="BE4" s="21"/>
+      <c r="BF4" s="21"/>
+      <c r="BG4" s="21"/>
+      <c r="BH4" s="21"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="21"/>
+      <c r="BK4" s="21"/>
+      <c r="BL4" s="21"/>
     </row>
-    <row r="5" spans="1:64" ht="16">
+    <row r="5" spans="1:64" ht="16" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -12546,29 +12633,29 @@
         <v>-182.00112915039063</v>
       </c>
       <c r="AO5" s="12"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="22"/>
-      <c r="AW5" s="22"/>
-      <c r="AX5" s="22"/>
-      <c r="AY5" s="22"/>
-      <c r="AZ5" s="22"/>
-      <c r="BA5" s="22"/>
-      <c r="BB5" s="22"/>
-      <c r="BC5" s="22"/>
-      <c r="BD5" s="22"/>
-      <c r="BE5" s="22"/>
-      <c r="BF5" s="22"/>
-      <c r="BG5" s="22"/>
-      <c r="BH5" s="22"/>
-      <c r="BI5" s="22"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="22"/>
-      <c r="BL5" s="22"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="21"/>
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
+      <c r="BA5" s="21"/>
+      <c r="BB5" s="21"/>
+      <c r="BC5" s="21"/>
+      <c r="BD5" s="21"/>
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="21"/>
+      <c r="BG5" s="21"/>
+      <c r="BH5" s="21"/>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="21"/>
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="21"/>
     </row>
-    <row r="6" spans="1:64" ht="16">
+    <row r="6" spans="1:64" ht="16" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -12690,27 +12777,27 @@
         <v>-279.9974365234375</v>
       </c>
       <c r="AO6" s="12"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="22"/>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="22"/>
-      <c r="BD6" s="22"/>
-      <c r="BE6" s="22"/>
-      <c r="BF6" s="22"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="22"/>
-      <c r="BJ6" s="22"/>
-      <c r="BK6" s="22"/>
-      <c r="BL6" s="22"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
     </row>
     <row r="7" spans="1:64" ht="16">
       <c r="A7" s="2" t="s">
@@ -17289,71 +17376,71 @@
       </c>
       <c r="D45" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C45,0,"","auto")</f>
-        <v>212.6300048828125</v>
+        <v>212.62471008300781</v>
       </c>
       <c r="E45" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C45,0,"","auto")</f>
-        <v>613.59002685546875</v>
+        <v>613.58050537109375</v>
       </c>
       <c r="F45" s="7">
         <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C45,0,"","auto")</f>
-        <v>410518</v>
+        <v>410518.28125</v>
       </c>
       <c r="G45" s="7">
         <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C45,0,"","auto")</f>
-        <v>157520</v>
+        <v>157520.953125</v>
       </c>
       <c r="H45" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C45,0,"","auto")</f>
-        <v>44.860000610351563</v>
+        <v>44.859916687011719</v>
       </c>
       <c r="I45" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C45,0,"","auto")</f>
-        <v>52.540000915527344</v>
+        <v>52.539974212646484</v>
       </c>
       <c r="J45" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C45,0,"","auto")</f>
-        <v>58943</v>
+        <v>58943.1640625</v>
       </c>
       <c r="K45" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C45,0,"","auto")</f>
-        <v>199213</v>
+        <v>199215.78125</v>
       </c>
       <c r="L45" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C45,0,"","auto")</f>
-        <v>1093.699951171875</v>
+        <v>1093.8612060546875</v>
       </c>
       <c r="M45" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C45,0,"","auto")</f>
-        <v>1078.25</v>
+        <v>1078.426513671875</v>
       </c>
       <c r="N45" s="8">
         <f t="shared" ref="N45" si="0">(J45+F45-F44)/(D45*H45/100)/1000</f>
-        <v>0.63144604785354053</v>
+        <v>0.63146762217535901</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" ref="O45" si="1">(K45+G45-G44)/(E45*I45/100)/1000</f>
-        <v>0.6314438553715096</v>
+        <v>0.63146555893309519</v>
       </c>
       <c r="P45" s="8">
         <f t="shared" ref="P45" si="2">((J45+K45)+F45+G45-F44-G44)/(D45*H45/100+E45*I45/100)/1000</f>
-        <v>0.63144435596678539</v>
+        <v>0.63146603001598223</v>
       </c>
       <c r="Q45" s="8">
         <f t="shared" ref="Q45" si="3">P45*H45*10</f>
-        <v>283.26594194073044</v>
+        <v>283.27513497195002</v>
       </c>
       <c r="R45" s="8">
         <f t="shared" ref="R45" si="4">P45*I45*10</f>
-        <v>331.76087040599475</v>
+        <v>331.77208933201962</v>
       </c>
       <c r="S45" s="4">
         <f t="shared" ref="S45" si="5">((J45+K45)+F45+G45-F44-G44)/(D45+E45)</f>
-        <v>319.2805667577444</v>
+        <v>319.29135129280115</v>
       </c>
       <c r="T45" s="5">
         <f t="shared" ref="T45" si="6">IF(AL45&lt;3000,0,AL45)</f>
-        <v>256026</v>
+        <v>258112.046875</v>
       </c>
       <c r="U45" s="5">
         <f t="shared" ref="U45" si="7">IF(AM45&lt;3000,0,AM45)</f>
@@ -17368,7 +17455,7 @@
       </c>
       <c r="X45" s="7">
         <f t="shared" ref="X45" si="9">J45+K45</f>
-        <v>258156</v>
+        <v>258158.9453125</v>
       </c>
       <c r="Y45" s="4">
         <v>0.61699999999999999</v>
@@ -17412,15 +17499,15 @@
       </c>
       <c r="AL45" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C45,0,"","auto")</f>
-        <v>256026</v>
+        <v>258112.046875</v>
       </c>
       <c r="AM45" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C45,0,"","auto")</f>
-        <v>494</v>
+        <v>84.006019592285156</v>
       </c>
       <c r="AN45" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C45,0,"","auto")</f>
-        <v>-4</v>
+        <v>-39.998458862304688</v>
       </c>
     </row>
     <row r="46" spans="2:40">
@@ -17432,71 +17519,71 @@
       </c>
       <c r="D46" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C46,0,"","auto")</f>
-        <v>205.00999450683594</v>
+        <v>205.01460266113281</v>
       </c>
       <c r="E46" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C46,0,"","auto")</f>
-        <v>599.8900146484375</v>
+        <v>599.85833740234375</v>
       </c>
       <c r="F46" s="7">
         <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C46,0,"","auto")</f>
-        <v>410915</v>
+        <v>410911.1875</v>
       </c>
       <c r="G46" s="7">
         <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C46,0,"","auto")</f>
-        <v>158882</v>
+        <v>158870.421875</v>
       </c>
       <c r="H46" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C46,0,"","auto")</f>
-        <v>44.740001678466797</v>
+        <v>44.740272521972656</v>
       </c>
       <c r="I46" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C46,0,"","auto")</f>
-        <v>52.5</v>
+        <v>52.499916076660156</v>
       </c>
       <c r="J46" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C46,0,"","auto")</f>
-        <v>59181</v>
+        <v>59182.0234375</v>
       </c>
       <c r="K46" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C46,0,"","auto")</f>
-        <v>203208</v>
+        <v>203194.90625</v>
       </c>
       <c r="L46" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C46,0,"","auto")</f>
-        <v>1325.9000244140625</v>
+        <v>1325.858642578125</v>
       </c>
       <c r="M46" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C46,0,"","auto")</f>
-        <v>1332.4100341796875</v>
+        <v>1332.3580322265625</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" ref="N46" si="11">(J46+F46-F45)/(D46*H46/100)/1000</f>
-        <v>0.64955344439013407</v>
+        <v>0.64950143879528022</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" ref="O46" si="12">(K46+G46-G45)/(E46*I46/100)/1000</f>
-        <v>0.64954763930434722</v>
+        <v>0.64950161037344356</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" ref="P46" si="13">((J46+K46)+F46+G46-F45-G45)/(D46*H46/100+E46*I46/100)/1000</f>
-        <v>0.64954894861960699</v>
+        <v>0.6495015716721485</v>
       </c>
       <c r="Q46" s="8">
         <f t="shared" ref="Q46" si="14">P46*H46*10</f>
-        <v>290.60821051487562</v>
+        <v>290.58877320061481</v>
       </c>
       <c r="R46" s="8">
         <f t="shared" ref="R46" si="15">P46*I46*10</f>
-        <v>341.01319802529366</v>
+        <v>340.98778004446666</v>
       </c>
       <c r="S46" s="4">
         <f t="shared" ref="S46" si="16">((J46+K46)+F46+G46-F45-G45)/(D46+E46)</f>
-        <v>328.17492482975382</v>
+        <v>328.15030986961762</v>
       </c>
       <c r="T46" s="5">
         <f t="shared" ref="T46" si="17">IF(AL46&lt;3000,0,AL46)</f>
-        <v>256026</v>
+        <v>261691.796875</v>
       </c>
       <c r="U46" s="5">
         <f t="shared" ref="U46" si="18">IF(AM46&lt;3000,0,AM46)</f>
@@ -17511,7 +17598,7 @@
       </c>
       <c r="X46" s="7">
         <f t="shared" ref="X46" si="20">J46+K46</f>
-        <v>262389</v>
+        <v>262376.9296875</v>
       </c>
       <c r="Y46" s="4">
         <v>0.61699999999999999</v>
@@ -17555,15 +17642,15 @@
       </c>
       <c r="AL46" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C46,0,"","auto")</f>
-        <v>256026</v>
+        <v>261691.796875</v>
       </c>
       <c r="AM46" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C46,0,"","auto")</f>
-        <v>494</v>
+        <v>603.99896240234375</v>
       </c>
       <c r="AN46" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C46,0,"","auto")</f>
-        <v>-4</v>
+        <v>92.998359680175781</v>
       </c>
     </row>
     <row r="47" spans="2:40">
@@ -17615,27 +17702,27 @@
       </c>
       <c r="N47" s="8">
         <f t="shared" ref="N47:N48" si="22">(J47+F47-F46)/(D47*H47/100)/1000</f>
-        <v>0.57748963875727877</v>
+        <v>0.57752955461318356</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" ref="O47:O48" si="23">(K47+G47-G46)/(E47*I47/100)/1000</f>
-        <v>0.57750738120351541</v>
+        <v>0.57754726402002177</v>
       </c>
       <c r="P47" s="8">
         <f t="shared" ref="P47:P48" si="24">((J47+K47)+F47+G47-F46-G46)/(D47*H47/100+E47*I47/100)/1000</f>
-        <v>0.57750298885770202</v>
+        <v>0.57754287985348995</v>
       </c>
       <c r="Q47" s="8">
         <f t="shared" ref="Q47:Q48" si="25">P47*H47*10</f>
-        <v>260.62657632010092</v>
+        <v>260.64457909040482</v>
       </c>
       <c r="R47" s="8">
         <f t="shared" ref="R47:R48" si="26">P47*I47*10</f>
-        <v>302.49704105165358</v>
+        <v>302.51793602262916</v>
       </c>
       <c r="S47" s="4">
         <f t="shared" ref="S47:S48" si="27">((J47+K47)+F47+G47-F46-G46)/(D47+E47)</f>
-        <v>290.92645582045765</v>
+        <v>290.94655155372249</v>
       </c>
       <c r="T47" s="5">
         <f t="shared" ref="T47:T48" si="28">IF(AL47&lt;3000,0,AL47)</f>
@@ -17718,71 +17805,71 @@
       </c>
       <c r="D48" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C48,0,"","auto")</f>
-        <v>213.16999816894531</v>
+        <v>213.16201782226563</v>
       </c>
       <c r="E48" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C48,0,"","auto")</f>
-        <v>517.1400146484375</v>
+        <v>517.1982421875</v>
       </c>
       <c r="F48" s="7">
         <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C48,0,"","auto")</f>
-        <v>404525</v>
+        <v>404525.6875</v>
       </c>
       <c r="G48" s="7">
         <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C48,0,"","auto")</f>
-        <v>139642</v>
+        <v>139644.390625</v>
       </c>
       <c r="H48" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C48,0,"","auto")</f>
-        <v>45</v>
+        <v>45.000213623046875</v>
       </c>
       <c r="I48" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C48,0,"","auto")</f>
-        <v>52.619998931884766</v>
+        <v>52.619560241699219</v>
       </c>
       <c r="J48" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C48,0,"","auto")</f>
-        <v>52931</v>
+        <v>52933.4296875</v>
       </c>
       <c r="K48" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C48,0,"","auto")</f>
-        <v>150153</v>
+        <v>150182.71875</v>
       </c>
       <c r="L48" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C48,0,"","auto")</f>
-        <v>1307.4000244140625</v>
+        <v>1307.350341796875</v>
       </c>
       <c r="M48" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C48,0,"","auto")</f>
-        <v>1386.3800048828125</v>
+        <v>1385.947021484375</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" si="22"/>
-        <v>0.54239053282373517</v>
+        <v>0.54244076054368107</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="23"/>
-        <v>0.54238308674951796</v>
+        <v>0.54244453040009166</v>
       </c>
       <c r="P48" s="8">
         <f t="shared" si="24"/>
-        <v>0.5423850274761336</v>
+        <v>0.54244354793339655</v>
       </c>
       <c r="Q48" s="8">
         <f t="shared" si="25"/>
-        <v>244.07326236426013</v>
+        <v>244.1007553544631</v>
       </c>
       <c r="R48" s="8">
         <f t="shared" si="26"/>
-        <v>285.40299566464444</v>
+        <v>285.43140948202415</v>
       </c>
       <c r="S48" s="4">
         <f t="shared" si="27"/>
-        <v>273.33927064740442</v>
+        <v>273.36869726432047</v>
       </c>
       <c r="T48" s="5">
         <f t="shared" si="28"/>
-        <v>202759</v>
+        <v>202759.53125</v>
       </c>
       <c r="U48" s="5">
         <f t="shared" si="29"/>
@@ -17797,7 +17884,7 @@
       </c>
       <c r="X48" s="7">
         <f t="shared" si="31"/>
-        <v>203084</v>
+        <v>203116.1484375</v>
       </c>
       <c r="Y48" s="4">
         <v>0.61699999999999999</v>
@@ -17841,15 +17928,15 @@
       </c>
       <c r="AL48" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C48,0,"","auto")</f>
-        <v>202759</v>
+        <v>202759.53125</v>
       </c>
       <c r="AM48" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C48,0,"","auto")</f>
-        <v>311</v>
+        <v>310.99990844726563</v>
       </c>
       <c r="AN48" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C48,0,"","auto")</f>
-        <v>14</v>
+        <v>13.999166488647461</v>
       </c>
     </row>
     <row r="49" spans="2:40">
@@ -17861,71 +17948,71 @@
       </c>
       <c r="D49" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C49,0,"","auto")</f>
-        <v>201.67999267578125</v>
+        <v>201.68836975097656</v>
       </c>
       <c r="E49" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C49,0,"","auto")</f>
-        <v>601</v>
+        <v>600.99737548828125</v>
       </c>
       <c r="F49" s="7">
         <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C49,0,"","auto")</f>
-        <v>405532</v>
+        <v>405533.65625</v>
       </c>
       <c r="G49" s="7">
         <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C49,0,"","auto")</f>
-        <v>143088</v>
+        <v>143093.4375</v>
       </c>
       <c r="H49" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C49,0,"","auto")</f>
-        <v>45.310001373291016</v>
+        <v>45.309711456298828</v>
       </c>
       <c r="I49" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C49,0,"","auto")</f>
-        <v>51.990001678466797</v>
+        <v>51.990287780761719</v>
       </c>
       <c r="J49" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C49,0,"","auto")</f>
-        <v>56429</v>
+        <v>56431.8359375</v>
       </c>
       <c r="K49" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C49,0,"","auto")</f>
-        <v>192946</v>
+        <v>192949.046875</v>
       </c>
       <c r="L49" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C49,0,"","auto")</f>
-        <v>1235.800048828125</v>
+        <v>1235.9833984375</v>
       </c>
       <c r="M49" s="6">
         <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C49,0,"","auto")</f>
-        <v>762.9000244140625</v>
+        <v>763.08648681640625</v>
       </c>
       <c r="N49" s="8">
         <f t="shared" ref="N49" si="33">(J49+F49-F48)/(D49*H49/100)/1000</f>
-        <v>0.62853185684558643</v>
+        <v>0.62855140634306583</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" ref="O49" si="34">(K49+G49-G48)/(E49*I49/100)/1000</f>
-        <v>0.62853503332619365</v>
+        <v>0.6285538217323664</v>
       </c>
       <c r="P49" s="8">
         <f t="shared" ref="P49" si="35">((J49+K49)+F49+G49-F48-G48)/(D49*H49/100+E49*I49/100)/1000</f>
-        <v>0.62853431455185216</v>
+        <v>0.62855327516346149</v>
       </c>
       <c r="Q49" s="8">
         <f t="shared" ref="Q49" si="36">P49*H49*10</f>
-        <v>284.78890655504949</v>
+        <v>284.79567532568041</v>
       </c>
       <c r="R49" s="8">
         <f t="shared" ref="R49" si="37">P49*I49*10</f>
-        <v>326.77500068524773</v>
+        <v>326.7866566128867</v>
       </c>
       <c r="S49" s="4">
         <f t="shared" ref="S49" si="38">((J49+K49)+F49+G49-F48-G48)/(D49+E49)</f>
-        <v>316.22564697775675</v>
+        <v>316.23571234822185</v>
       </c>
       <c r="T49" s="5">
         <f t="shared" ref="T49" si="39">IF(AL49&lt;3000,0,AL49)</f>
-        <v>249131</v>
+        <v>249131.09375</v>
       </c>
       <c r="U49" s="5">
         <f t="shared" ref="U49" si="40">IF(AM49&lt;3000,0,AM49)</f>
@@ -17940,7 +18027,7 @@
       </c>
       <c r="X49" s="7">
         <f t="shared" ref="X49" si="42">J49+K49</f>
-        <v>249375</v>
+        <v>249380.8828125</v>
       </c>
       <c r="Y49" s="4">
         <v>0.61699999999999999</v>
@@ -17984,15 +18071,15 @@
       </c>
       <c r="AL49" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C49,0,"","auto")</f>
-        <v>249131</v>
+        <v>249131.09375</v>
       </c>
       <c r="AM49" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C49,0,"","auto")</f>
-        <v>302</v>
+        <v>301.99908447265625</v>
       </c>
       <c r="AN49" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C49,0,"","auto")</f>
-        <v>-58</v>
+        <v>-57.998043060302734</v>
       </c>
     </row>
     <row r="50" spans="2:40">
@@ -18044,27 +18131,27 @@
       </c>
       <c r="N50" s="8">
         <f t="shared" ref="N50" si="44">(J50+F50-F49)/(D50*H50/100)/1000</f>
-        <v>0.6556898758934353</v>
+        <v>0.65567261472587668</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" ref="O50" si="45">(K50+G50-G49)/(E50*I50/100)/1000</f>
-        <v>0.65568028685748836</v>
+        <v>0.65566291034082325</v>
       </c>
       <c r="P50" s="8">
         <f t="shared" ref="P50" si="46">((J50+K50)+F50+G50-F49-G49)/(D50*H50/100+E50*I50/100)/1000</f>
-        <v>0.65568253715755065</v>
+        <v>0.65566518771035354</v>
       </c>
       <c r="Q50" s="8">
         <f t="shared" ref="Q50" si="47">P50*H50*10</f>
-        <v>294.33588692805591</v>
+        <v>294.32809876131495</v>
       </c>
       <c r="R50" s="8">
         <f t="shared" ref="R50" si="48">P50*I50*10</f>
-        <v>343.57765947547807</v>
+        <v>343.56856836488203</v>
       </c>
       <c r="S50" s="4">
         <f t="shared" ref="S50" si="49">((J50+K50)+F50+G50-F49-G49)/(D50+E50)</f>
-        <v>330.59820505021838</v>
+        <v>330.58945737771387</v>
       </c>
       <c r="T50" s="5">
         <f t="shared" ref="T50" si="50">IF(AL50&lt;3000,0,AL50)</f>
@@ -18145,43 +18232,141 @@
       <c r="C51" s="13">
         <v>46072</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-      <c r="AG51" s="4"/>
-      <c r="AH51" s="4"/>
-      <c r="AI51" s="4"/>
-      <c r="AJ51" s="4"/>
-      <c r="AK51" s="4"/>
-      <c r="AL51" s="4"/>
-      <c r="AM51" s="4"/>
-      <c r="AN51" s="4"/>
+      <c r="D51" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C51,0,"","auto")</f>
+        <v>203.75999450683594</v>
+      </c>
+      <c r="E51" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C51,0,"","auto")</f>
+        <v>529.8800048828125</v>
+      </c>
+      <c r="F51" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C51,0,"","auto")</f>
+        <v>403484</v>
+      </c>
+      <c r="G51" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C51,0,"","auto")</f>
+        <v>137525</v>
+      </c>
+      <c r="H51" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C51,0,"","auto")</f>
+        <v>45.319999694824219</v>
+      </c>
+      <c r="I51" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C51,0,"","auto")</f>
+        <v>52.459999084472656</v>
+      </c>
+      <c r="J51" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C51,0,"","auto")</f>
+        <v>63404</v>
+      </c>
+      <c r="K51" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C51,0,"","auto")</f>
+        <v>190859</v>
+      </c>
+      <c r="L51" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C51,0,"","auto")</f>
+        <v>1536.300048828125</v>
+      </c>
+      <c r="M51" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C51,0,"","auto")</f>
+        <v>1607.1300048828125</v>
+      </c>
+      <c r="N51" s="8">
+        <f t="shared" ref="N51" si="55">(J51+F51-F50)/(D51*H51/100)/1000</f>
+        <v>0.63839536469728164</v>
+      </c>
+      <c r="O51" s="8">
+        <f t="shared" ref="O51" si="56">(K51+G51-G50)/(E51*I51/100)/1000</f>
+        <v>0.63839543418917488</v>
+      </c>
+      <c r="P51" s="8">
+        <f t="shared" ref="P51" si="57">((J51+K51)+F51+G51-F50-G50)/(D51*H51/100+E51*I51/100)/1000</f>
+        <v>0.63839541686043899</v>
+      </c>
+      <c r="Q51" s="8">
+        <f t="shared" ref="Q51" si="58">P51*H51*10</f>
+        <v>289.32080097292277</v>
+      </c>
+      <c r="R51" s="8">
+        <f t="shared" ref="R51" si="59">P51*I51*10</f>
+        <v>334.90222984030169</v>
+      </c>
+      <c r="S51" s="4">
+        <f t="shared" ref="S51" si="60">((J51+K51)+F51+G51-F50-G50)/(D51+E51)</f>
+        <v>322.24251703380571</v>
+      </c>
+      <c r="T51" s="5">
+        <f t="shared" ref="T51" si="61">IF(AL51&lt;3000,0,AL51)</f>
+        <v>257516</v>
+      </c>
+      <c r="U51" s="5">
+        <f t="shared" ref="U51" si="62">IF(AM51&lt;3000,0,AM51)</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="5">
+        <f t="shared" ref="V51" si="63">IF(AN51&lt;3000,0,AN51)</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X51" s="7">
+        <f t="shared" ref="X51" si="64">J51+K51</f>
+        <v>254263</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z51" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA51" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB51" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC51" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE51" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF51" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG51" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH51" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="4">
+        <f t="shared" ref="AK51" si="65">SUM(AH51:AJ51)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL51" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C51,0,"","auto")</f>
+        <v>257516</v>
+      </c>
+      <c r="AM51" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C51,0,"","auto")</f>
+        <v>223</v>
+      </c>
+      <c r="AN51" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C51,0,"","auto")</f>
+        <v>111</v>
+      </c>
     </row>
     <row r="52" spans="2:40">
       <c r="B52" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1246,7 +1246,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1337,9 +1336,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1361,9 +1358,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1664,7 +1659,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1673,9 +1667,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1683,7 +1675,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1692,9 +1683,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2112,7 +2101,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2219,7 +2207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2284,7 +2271,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2293,9 +2279,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-B8D4-4943-8087-5038E5DF57F4}"/>
                 </c:ext>
@@ -2303,7 +2287,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2312,9 +2295,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2615,7 +2596,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2651,9 +2631,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2952,7 +2930,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2961,9 +2938,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -2985,9 +2960,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3289,7 +3262,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:numFmt formatCode="#,##0" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3325,9 +3297,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C1AA-4BA1-B9D7-0FA9D080A20B}"/>
                 </c:ext>
@@ -3746,7 +3716,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3853,7 +3822,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3918,7 +3886,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3927,9 +3894,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3937,7 +3902,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3946,9 +3910,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4248,7 +4210,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4257,9 +4218,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4267,7 +4226,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4276,9 +4234,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4576,7 +4532,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4585,9 +4540,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4595,7 +4548,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4604,9 +4556,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4907,7 +4857,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4916,9 +4865,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4926,7 +4873,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4935,9 +4881,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5354,7 +5298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5466,7 +5409,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5531,7 +5473,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5540,9 +5481,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5550,7 +5489,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5559,9 +5497,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5861,7 +5797,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5870,9 +5805,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -6290,7 +6223,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6402,7 +6334,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6467,7 +6398,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6476,9 +6406,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6486,7 +6414,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6495,9 +6422,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6797,7 +6722,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6806,9 +6730,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7226,7 +7148,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7333,7 +7254,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7398,7 +7318,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7407,9 +7326,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-E73E-4A56-8161-D7588DDD0A4F}"/>
                 </c:ext>
@@ -7417,7 +7334,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7426,9 +7342,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -7728,7 +7642,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7737,9 +7650,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -8157,7 +8068,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12017,10 +11927,10 @@
   <dimension ref="A1:BL92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomRight" activeCell="AE56" sqref="AE56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18375,43 +18285,141 @@
       <c r="C52" s="13">
         <v>46073</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-      <c r="AG52" s="4"/>
-      <c r="AH52" s="4"/>
-      <c r="AI52" s="4"/>
-      <c r="AJ52" s="4"/>
-      <c r="AK52" s="4"/>
-      <c r="AL52" s="4"/>
-      <c r="AM52" s="4"/>
-      <c r="AN52" s="4"/>
+      <c r="D52" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C52,0,"","auto")</f>
+        <v>212.86000061035156</v>
+      </c>
+      <c r="E52" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C52,0,"","auto")</f>
+        <v>549.45001220703125</v>
+      </c>
+      <c r="F52" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C52,0,"","auto")</f>
+        <v>400394</v>
+      </c>
+      <c r="G52" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C52,0,"","auto")</f>
+        <v>128267</v>
+      </c>
+      <c r="H52" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C52,0,"","auto")</f>
+        <v>45.159999847412109</v>
+      </c>
+      <c r="I52" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C52,0,"","auto")</f>
+        <v>52.419998168945313</v>
+      </c>
+      <c r="J52" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C52,0,"","auto")</f>
+        <v>63311</v>
+      </c>
+      <c r="K52" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C52,0,"","auto")</f>
+        <v>189697</v>
+      </c>
+      <c r="L52" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C52,0,"","auto")</f>
+        <v>974.4000244140625</v>
+      </c>
+      <c r="M52" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C52,0,"","auto")</f>
+        <v>1795.780029296875</v>
+      </c>
+      <c r="N52" s="8">
+        <f t="shared" ref="N52" si="66">(J52+F52-F51)/(D52*H52/100)/1000</f>
+        <v>0.62646955781761982</v>
+      </c>
+      <c r="O52" s="8">
+        <f t="shared" ref="O52" si="67">(K52+G52-G51)/(E52*I52/100)/1000</f>
+        <v>0.62647713196195987</v>
+      </c>
+      <c r="P52" s="8">
+        <f t="shared" ref="P52" si="68">((J52+K52)+F52+G52-F51-G51)/(D52*H52/100+E52*I52/100)/1000</f>
+        <v>0.62647523664624072</v>
+      </c>
+      <c r="Q52" s="8">
+        <f t="shared" ref="Q52" si="69">P52*H52*10</f>
+        <v>282.91621591351696</v>
+      </c>
+      <c r="R52" s="8">
+        <f t="shared" ref="R52" si="70">P52*I52*10</f>
+        <v>328.39830757885522</v>
+      </c>
+      <c r="S52" s="4">
+        <f t="shared" ref="S52" si="71">((J52+K52)+F52+G52-F51-G51)/(D52+E52)</f>
+        <v>315.69833263839331</v>
+      </c>
+      <c r="T52" s="5">
+        <f t="shared" ref="T52" si="72">IF(AL52&lt;3000,0,AL52)</f>
+        <v>253380</v>
+      </c>
+      <c r="U52" s="5">
+        <f t="shared" ref="U52" si="73">IF(AM52&lt;3000,0,AM52)</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="5">
+        <f t="shared" ref="V52" si="74">IF(AN52&lt;3000,0,AN52)</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X52" s="7">
+        <f t="shared" ref="X52" si="75">J52+K52</f>
+        <v>253008</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z52" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA52" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB52" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC52" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD52" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE52" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF52" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG52" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH52" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="4">
+        <f t="shared" ref="AK52" si="76">SUM(AH52:AJ52)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL52" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C52,0,"","auto")</f>
+        <v>253380</v>
+      </c>
+      <c r="AM52" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C52,0,"","auto")</f>
+        <v>-228</v>
+      </c>
+      <c r="AN52" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C52,0,"","auto")</f>
+        <v>-144</v>
+      </c>
     </row>
     <row r="53" spans="2:40">
       <c r="B53" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1246,6 +1246,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1336,7 +1337,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1358,7 +1361,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1659,6 +1664,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1667,7 +1673,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1675,6 +1683,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1683,7 +1692,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2101,6 +2112,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3822,6 +3834,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3886,6 +3899,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3894,7 +3908,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3902,6 +3918,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3910,7 +3927,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4210,6 +4229,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4218,7 +4238,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4226,6 +4248,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4234,7 +4257,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4532,6 +4557,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4540,7 +4566,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4548,6 +4576,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4556,7 +4585,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4857,6 +4888,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4865,7 +4897,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4873,6 +4907,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4881,7 +4916,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5298,6 +5335,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6334,6 +6372,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6398,6 +6437,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6406,7 +6446,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6414,6 +6456,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6422,7 +6465,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6722,6 +6767,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6730,7 +6776,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7148,6 +7196,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11927,10 +11976,10 @@
   <dimension ref="A1:BL92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE56" sqref="AE56"/>
+      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -17285,86 +17334,66 @@
         <v>46066</v>
       </c>
       <c r="D45" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C45,0,"","auto")</f>
         <v>212.62471008300781</v>
       </c>
       <c r="E45" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C45,0,"","auto")</f>
         <v>613.58050537109375</v>
       </c>
       <c r="F45" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C45,0,"","auto")</f>
         <v>410518.28125</v>
       </c>
       <c r="G45" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C45,0,"","auto")</f>
         <v>157520.953125</v>
       </c>
       <c r="H45" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C45,0,"","auto")</f>
         <v>44.859916687011719</v>
       </c>
       <c r="I45" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C45,0,"","auto")</f>
         <v>52.539974212646484</v>
       </c>
       <c r="J45" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C45,0,"","auto")</f>
         <v>58943.1640625</v>
       </c>
       <c r="K45" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C45,0,"","auto")</f>
         <v>199215.78125</v>
       </c>
       <c r="L45" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C45,0,"","auto")</f>
         <v>1093.8612060546875</v>
       </c>
       <c r="M45" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C45,0,"","auto")</f>
         <v>1078.426513671875</v>
       </c>
       <c r="N45" s="8">
-        <f t="shared" ref="N45" si="0">(J45+F45-F44)/(D45*H45/100)/1000</f>
         <v>0.63146762217535901</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" ref="O45" si="1">(K45+G45-G44)/(E45*I45/100)/1000</f>
         <v>0.63146555893309519</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" ref="P45" si="2">((J45+K45)+F45+G45-F44-G44)/(D45*H45/100+E45*I45/100)/1000</f>
         <v>0.63146603001598223</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" ref="Q45" si="3">P45*H45*10</f>
         <v>283.27513497195002</v>
       </c>
       <c r="R45" s="8">
-        <f t="shared" ref="R45" si="4">P45*I45*10</f>
         <v>331.77208933201962</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" ref="S45" si="5">((J45+K45)+F45+G45-F44-G44)/(D45+E45)</f>
         <v>319.29135129280115</v>
       </c>
       <c r="T45" s="5">
-        <f t="shared" ref="T45" si="6">IF(AL45&lt;3000,0,AL45)</f>
         <v>258112.046875</v>
       </c>
       <c r="U45" s="5">
-        <f t="shared" ref="U45" si="7">IF(AM45&lt;3000,0,AM45)</f>
         <v>0</v>
       </c>
       <c r="V45" s="5">
-        <f t="shared" ref="V45" si="8">IF(AN45&lt;3000,0,AN45)</f>
         <v>0</v>
       </c>
       <c r="W45" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X45" s="7">
-        <f t="shared" ref="X45" si="9">J45+K45</f>
         <v>258158.9453125</v>
       </c>
       <c r="Y45" s="4">
@@ -17404,19 +17433,15 @@
         <v>0</v>
       </c>
       <c r="AK45" s="4">
-        <f t="shared" ref="AK45" si="10">SUM(AH45:AJ45)</f>
         <v>250000</v>
       </c>
       <c r="AL45" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C45,0,"","auto")</f>
         <v>258112.046875</v>
       </c>
       <c r="AM45" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C45,0,"","auto")</f>
         <v>84.006019592285156</v>
       </c>
       <c r="AN45" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C45,0,"","auto")</f>
         <v>-39.998458862304688</v>
       </c>
     </row>
@@ -17428,86 +17453,66 @@
         <v>46067</v>
       </c>
       <c r="D46" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C46,0,"","auto")</f>
         <v>205.01460266113281</v>
       </c>
       <c r="E46" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C46,0,"","auto")</f>
         <v>599.85833740234375</v>
       </c>
       <c r="F46" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C46,0,"","auto")</f>
         <v>410911.1875</v>
       </c>
       <c r="G46" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C46,0,"","auto")</f>
         <v>158870.421875</v>
       </c>
       <c r="H46" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C46,0,"","auto")</f>
         <v>44.740272521972656</v>
       </c>
       <c r="I46" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C46,0,"","auto")</f>
         <v>52.499916076660156</v>
       </c>
       <c r="J46" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C46,0,"","auto")</f>
         <v>59182.0234375</v>
       </c>
       <c r="K46" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C46,0,"","auto")</f>
         <v>203194.90625</v>
       </c>
       <c r="L46" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C46,0,"","auto")</f>
         <v>1325.858642578125</v>
       </c>
       <c r="M46" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C46,0,"","auto")</f>
         <v>1332.3580322265625</v>
       </c>
       <c r="N46" s="8">
-        <f t="shared" ref="N46" si="11">(J46+F46-F45)/(D46*H46/100)/1000</f>
         <v>0.64950143879528022</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" ref="O46" si="12">(K46+G46-G45)/(E46*I46/100)/1000</f>
         <v>0.64950161037344356</v>
       </c>
       <c r="P46" s="8">
-        <f t="shared" ref="P46" si="13">((J46+K46)+F46+G46-F45-G45)/(D46*H46/100+E46*I46/100)/1000</f>
         <v>0.6495015716721485</v>
       </c>
       <c r="Q46" s="8">
-        <f t="shared" ref="Q46" si="14">P46*H46*10</f>
         <v>290.58877320061481</v>
       </c>
       <c r="R46" s="8">
-        <f t="shared" ref="R46" si="15">P46*I46*10</f>
         <v>340.98778004446666</v>
       </c>
       <c r="S46" s="4">
-        <f t="shared" ref="S46" si="16">((J46+K46)+F46+G46-F45-G45)/(D46+E46)</f>
         <v>328.15030986961762</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" ref="T46" si="17">IF(AL46&lt;3000,0,AL46)</f>
         <v>261691.796875</v>
       </c>
       <c r="U46" s="5">
-        <f t="shared" ref="U46" si="18">IF(AM46&lt;3000,0,AM46)</f>
         <v>0</v>
       </c>
       <c r="V46" s="5">
-        <f t="shared" ref="V46" si="19">IF(AN46&lt;3000,0,AN46)</f>
         <v>0</v>
       </c>
       <c r="W46" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X46" s="7">
-        <f t="shared" ref="X46" si="20">J46+K46</f>
         <v>262376.9296875</v>
       </c>
       <c r="Y46" s="4">
@@ -17547,19 +17552,15 @@
         <v>0</v>
       </c>
       <c r="AK46" s="4">
-        <f t="shared" ref="AK46" si="21">SUM(AH46:AJ46)</f>
         <v>250000</v>
       </c>
       <c r="AL46" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C46,0,"","auto")</f>
         <v>261691.796875</v>
       </c>
       <c r="AM46" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C46,0,"","auto")</f>
         <v>603.99896240234375</v>
       </c>
       <c r="AN46" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C46,0,"","auto")</f>
         <v>92.998359680175781</v>
       </c>
     </row>
@@ -17571,86 +17572,66 @@
         <v>46068</v>
       </c>
       <c r="D47" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C47,0,"","auto")</f>
         <v>211.64106750488281</v>
       </c>
       <c r="E47" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C47,0,"","auto")</f>
         <v>554.2242431640625</v>
       </c>
       <c r="F47" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C47,0,"","auto")</f>
         <v>405426.375</v>
       </c>
       <c r="G47" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C47,0,"","auto")</f>
         <v>142202.21875</v>
       </c>
       <c r="H47" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C47,0,"","auto")</f>
         <v>45.129909515380859</v>
       </c>
       <c r="I47" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C47,0,"","auto")</f>
         <v>52.380168914794922</v>
       </c>
       <c r="J47" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C47,0,"","auto")</f>
         <v>60646.63671875</v>
       </c>
       <c r="K47" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C47,0,"","auto")</f>
         <v>184332.25</v>
       </c>
       <c r="L47" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C47,0,"","auto")</f>
         <v>1266.32861328125</v>
       </c>
       <c r="M47" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C47,0,"","auto")</f>
         <v>1257.6495361328125</v>
       </c>
       <c r="N47" s="8">
-        <f t="shared" ref="N47:N48" si="22">(J47+F47-F46)/(D47*H47/100)/1000</f>
         <v>0.57752955461318356</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" ref="O47:O48" si="23">(K47+G47-G46)/(E47*I47/100)/1000</f>
         <v>0.57754726402002177</v>
       </c>
       <c r="P47" s="8">
-        <f t="shared" ref="P47:P48" si="24">((J47+K47)+F47+G47-F46-G46)/(D47*H47/100+E47*I47/100)/1000</f>
         <v>0.57754287985348995</v>
       </c>
       <c r="Q47" s="8">
-        <f t="shared" ref="Q47:Q48" si="25">P47*H47*10</f>
         <v>260.64457909040482</v>
       </c>
       <c r="R47" s="8">
-        <f t="shared" ref="R47:R48" si="26">P47*I47*10</f>
         <v>302.51793602262916</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" ref="S47:S48" si="27">((J47+K47)+F47+G47-F46-G46)/(D47+E47)</f>
         <v>290.94655155372249</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" ref="T47:T48" si="28">IF(AL47&lt;3000,0,AL47)</f>
         <v>244544.515625</v>
       </c>
       <c r="U47" s="5">
-        <f t="shared" ref="U47:U48" si="29">IF(AM47&lt;3000,0,AM47)</f>
         <v>0</v>
       </c>
       <c r="V47" s="5">
-        <f t="shared" ref="V47:V48" si="30">IF(AN47&lt;3000,0,AN47)</f>
         <v>0</v>
       </c>
       <c r="W47" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X47" s="7">
-        <f t="shared" ref="X47:X48" si="31">J47+K47</f>
         <v>244978.88671875</v>
       </c>
       <c r="Y47" s="4">
@@ -17690,19 +17671,15 @@
         <v>0</v>
       </c>
       <c r="AK47" s="4">
-        <f t="shared" ref="AK47:AK48" si="32">SUM(AH47:AJ47)</f>
         <v>250000</v>
       </c>
       <c r="AL47" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C47,0,"","auto")</f>
         <v>244544.515625</v>
       </c>
       <c r="AM47" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C47,0,"","auto")</f>
         <v>511.9976806640625</v>
       </c>
       <c r="AN47" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C47,0,"","auto")</f>
         <v>-48.999271392822266</v>
       </c>
     </row>
@@ -17714,86 +17691,66 @@
         <v>46069</v>
       </c>
       <c r="D48" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C48,0,"","auto")</f>
         <v>213.16201782226563</v>
       </c>
       <c r="E48" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C48,0,"","auto")</f>
         <v>517.1982421875</v>
       </c>
       <c r="F48" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C48,0,"","auto")</f>
         <v>404525.6875</v>
       </c>
       <c r="G48" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C48,0,"","auto")</f>
         <v>139644.390625</v>
       </c>
       <c r="H48" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C48,0,"","auto")</f>
         <v>45.000213623046875</v>
       </c>
       <c r="I48" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C48,0,"","auto")</f>
         <v>52.619560241699219</v>
       </c>
       <c r="J48" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C48,0,"","auto")</f>
         <v>52933.4296875</v>
       </c>
       <c r="K48" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C48,0,"","auto")</f>
         <v>150182.71875</v>
       </c>
       <c r="L48" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C48,0,"","auto")</f>
         <v>1307.350341796875</v>
       </c>
       <c r="M48" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C48,0,"","auto")</f>
         <v>1385.947021484375</v>
       </c>
       <c r="N48" s="8">
-        <f t="shared" si="22"/>
         <v>0.54244076054368107</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" si="23"/>
         <v>0.54244453040009166</v>
       </c>
       <c r="P48" s="8">
-        <f t="shared" si="24"/>
         <v>0.54244354793339655</v>
       </c>
       <c r="Q48" s="8">
-        <f t="shared" si="25"/>
         <v>244.1007553544631</v>
       </c>
       <c r="R48" s="8">
-        <f t="shared" si="26"/>
         <v>285.43140948202415</v>
       </c>
       <c r="S48" s="4">
-        <f t="shared" si="27"/>
         <v>273.36869726432047</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="28"/>
         <v>202759.53125</v>
       </c>
       <c r="U48" s="5">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V48" s="5">
-        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W48" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X48" s="7">
-        <f t="shared" si="31"/>
         <v>203116.1484375</v>
       </c>
       <c r="Y48" s="4">
@@ -17833,19 +17790,15 @@
         <v>0</v>
       </c>
       <c r="AK48" s="4">
-        <f t="shared" si="32"/>
         <v>250000</v>
       </c>
       <c r="AL48" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C48,0,"","auto")</f>
         <v>202759.53125</v>
       </c>
       <c r="AM48" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C48,0,"","auto")</f>
         <v>310.99990844726563</v>
       </c>
       <c r="AN48" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C48,0,"","auto")</f>
         <v>13.999166488647461</v>
       </c>
     </row>
@@ -17857,86 +17810,66 @@
         <v>46070</v>
       </c>
       <c r="D49" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C49,0,"","auto")</f>
         <v>201.68836975097656</v>
       </c>
       <c r="E49" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C49,0,"","auto")</f>
         <v>600.99737548828125</v>
       </c>
       <c r="F49" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C49,0,"","auto")</f>
         <v>405533.65625</v>
       </c>
       <c r="G49" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C49,0,"","auto")</f>
         <v>143093.4375</v>
       </c>
       <c r="H49" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C49,0,"","auto")</f>
         <v>45.309711456298828</v>
       </c>
       <c r="I49" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C49,0,"","auto")</f>
         <v>51.990287780761719</v>
       </c>
       <c r="J49" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C49,0,"","auto")</f>
         <v>56431.8359375</v>
       </c>
       <c r="K49" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C49,0,"","auto")</f>
         <v>192949.046875</v>
       </c>
       <c r="L49" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C49,0,"","auto")</f>
         <v>1235.9833984375</v>
       </c>
       <c r="M49" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C49,0,"","auto")</f>
         <v>763.08648681640625</v>
       </c>
       <c r="N49" s="8">
-        <f t="shared" ref="N49" si="33">(J49+F49-F48)/(D49*H49/100)/1000</f>
         <v>0.62855140634306583</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" ref="O49" si="34">(K49+G49-G48)/(E49*I49/100)/1000</f>
         <v>0.6285538217323664</v>
       </c>
       <c r="P49" s="8">
-        <f t="shared" ref="P49" si="35">((J49+K49)+F49+G49-F48-G48)/(D49*H49/100+E49*I49/100)/1000</f>
         <v>0.62855327516346149</v>
       </c>
       <c r="Q49" s="8">
-        <f t="shared" ref="Q49" si="36">P49*H49*10</f>
         <v>284.79567532568041</v>
       </c>
       <c r="R49" s="8">
-        <f t="shared" ref="R49" si="37">P49*I49*10</f>
         <v>326.7866566128867</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" ref="S49" si="38">((J49+K49)+F49+G49-F48-G48)/(D49+E49)</f>
         <v>316.23571234822185</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" ref="T49" si="39">IF(AL49&lt;3000,0,AL49)</f>
         <v>249131.09375</v>
       </c>
       <c r="U49" s="5">
-        <f t="shared" ref="U49" si="40">IF(AM49&lt;3000,0,AM49)</f>
         <v>0</v>
       </c>
       <c r="V49" s="5">
-        <f t="shared" ref="V49" si="41">IF(AN49&lt;3000,0,AN49)</f>
         <v>0</v>
       </c>
       <c r="W49" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X49" s="7">
-        <f t="shared" ref="X49" si="42">J49+K49</f>
         <v>249380.8828125</v>
       </c>
       <c r="Y49" s="4">
@@ -17976,19 +17909,15 @@
         <v>0</v>
       </c>
       <c r="AK49" s="4">
-        <f t="shared" ref="AK49" si="43">SUM(AH49:AJ49)</f>
         <v>250000</v>
       </c>
       <c r="AL49" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C49,0,"","auto")</f>
         <v>249131.09375</v>
       </c>
       <c r="AM49" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C49,0,"","auto")</f>
         <v>301.99908447265625</v>
       </c>
       <c r="AN49" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C49,0,"","auto")</f>
         <v>-57.998043060302734</v>
       </c>
     </row>
@@ -18000,86 +17929,66 @@
         <v>46071</v>
       </c>
       <c r="D50" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C50,0,"","auto")</f>
         <v>213.75</v>
       </c>
       <c r="E50" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C50,0,"","auto")</f>
         <v>597.17999267578125</v>
       </c>
       <c r="F50" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C50,0,"","auto")</f>
         <v>407936</v>
       </c>
       <c r="G50" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C50,0,"","auto")</f>
         <v>150926</v>
       </c>
       <c r="H50" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C50,0,"","auto")</f>
         <v>44.889999389648438</v>
       </c>
       <c r="I50" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C50,0,"","auto")</f>
         <v>52.400001525878906</v>
       </c>
       <c r="J50" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C50,0,"","auto")</f>
         <v>60511</v>
       </c>
       <c r="K50" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C50,0,"","auto")</f>
         <v>197339</v>
       </c>
       <c r="L50" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C50,0,"","auto")</f>
         <v>1499.9000244140625</v>
       </c>
       <c r="M50" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C50,0,"","auto")</f>
         <v>1031.3699951171875</v>
       </c>
       <c r="N50" s="8">
-        <f t="shared" ref="N50" si="44">(J50+F50-F49)/(D50*H50/100)/1000</f>
         <v>0.65567261472587668</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" ref="O50" si="45">(K50+G50-G49)/(E50*I50/100)/1000</f>
         <v>0.65566291034082325</v>
       </c>
       <c r="P50" s="8">
-        <f t="shared" ref="P50" si="46">((J50+K50)+F50+G50-F49-G49)/(D50*H50/100+E50*I50/100)/1000</f>
         <v>0.65566518771035354</v>
       </c>
       <c r="Q50" s="8">
-        <f t="shared" ref="Q50" si="47">P50*H50*10</f>
         <v>294.32809876131495</v>
       </c>
       <c r="R50" s="8">
-        <f t="shared" ref="R50" si="48">P50*I50*10</f>
         <v>343.56856836488203</v>
       </c>
       <c r="S50" s="4">
-        <f t="shared" ref="S50" si="49">((J50+K50)+F50+G50-F49-G49)/(D50+E50)</f>
         <v>330.58945737771387</v>
       </c>
       <c r="T50" s="5">
-        <f t="shared" ref="T50" si="50">IF(AL50&lt;3000,0,AL50)</f>
         <v>257516</v>
       </c>
       <c r="U50" s="5">
-        <f t="shared" ref="U50" si="51">IF(AM50&lt;3000,0,AM50)</f>
         <v>0</v>
       </c>
       <c r="V50" s="5">
-        <f t="shared" ref="V50" si="52">IF(AN50&lt;3000,0,AN50)</f>
         <v>0</v>
       </c>
       <c r="W50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X50" s="7">
-        <f t="shared" ref="X50" si="53">J50+K50</f>
         <v>257850</v>
       </c>
       <c r="Y50" s="4">
@@ -18119,19 +18028,15 @@
         <v>0</v>
       </c>
       <c r="AK50" s="4">
-        <f t="shared" ref="AK50" si="54">SUM(AH50:AJ50)</f>
         <v>250000</v>
       </c>
       <c r="AL50" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C50,0,"","auto")</f>
         <v>257516</v>
       </c>
       <c r="AM50" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C50,0,"","auto")</f>
         <v>223</v>
       </c>
       <c r="AN50" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C50,0,"","auto")</f>
         <v>111</v>
       </c>
     </row>
@@ -18143,86 +18048,66 @@
         <v>46072</v>
       </c>
       <c r="D51" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C51,0,"","auto")</f>
         <v>203.75999450683594</v>
       </c>
       <c r="E51" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C51,0,"","auto")</f>
         <v>529.8800048828125</v>
       </c>
       <c r="F51" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C51,0,"","auto")</f>
         <v>403484</v>
       </c>
       <c r="G51" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C51,0,"","auto")</f>
         <v>137525</v>
       </c>
       <c r="H51" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C51,0,"","auto")</f>
         <v>45.319999694824219</v>
       </c>
       <c r="I51" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C51,0,"","auto")</f>
         <v>52.459999084472656</v>
       </c>
       <c r="J51" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C51,0,"","auto")</f>
         <v>63404</v>
       </c>
       <c r="K51" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C51,0,"","auto")</f>
         <v>190859</v>
       </c>
       <c r="L51" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C51,0,"","auto")</f>
         <v>1536.300048828125</v>
       </c>
       <c r="M51" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C51,0,"","auto")</f>
         <v>1607.1300048828125</v>
       </c>
       <c r="N51" s="8">
-        <f t="shared" ref="N51" si="55">(J51+F51-F50)/(D51*H51/100)/1000</f>
         <v>0.63839536469728164</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" ref="O51" si="56">(K51+G51-G50)/(E51*I51/100)/1000</f>
         <v>0.63839543418917488</v>
       </c>
       <c r="P51" s="8">
-        <f t="shared" ref="P51" si="57">((J51+K51)+F51+G51-F50-G50)/(D51*H51/100+E51*I51/100)/1000</f>
         <v>0.63839541686043899</v>
       </c>
       <c r="Q51" s="8">
-        <f t="shared" ref="Q51" si="58">P51*H51*10</f>
         <v>289.32080097292277</v>
       </c>
       <c r="R51" s="8">
-        <f t="shared" ref="R51" si="59">P51*I51*10</f>
         <v>334.90222984030169</v>
       </c>
       <c r="S51" s="4">
-        <f t="shared" ref="S51" si="60">((J51+K51)+F51+G51-F50-G50)/(D51+E51)</f>
         <v>322.24251703380571</v>
       </c>
       <c r="T51" s="5">
-        <f t="shared" ref="T51" si="61">IF(AL51&lt;3000,0,AL51)</f>
         <v>257516</v>
       </c>
       <c r="U51" s="5">
-        <f t="shared" ref="U51" si="62">IF(AM51&lt;3000,0,AM51)</f>
         <v>0</v>
       </c>
       <c r="V51" s="5">
-        <f t="shared" ref="V51" si="63">IF(AN51&lt;3000,0,AN51)</f>
         <v>0</v>
       </c>
       <c r="W51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X51" s="7">
-        <f t="shared" ref="X51" si="64">J51+K51</f>
         <v>254263</v>
       </c>
       <c r="Y51" s="4">
@@ -18262,19 +18147,15 @@
         <v>0</v>
       </c>
       <c r="AK51" s="4">
-        <f t="shared" ref="AK51" si="65">SUM(AH51:AJ51)</f>
         <v>250000</v>
       </c>
       <c r="AL51" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C51,0,"","auto")</f>
         <v>257516</v>
       </c>
       <c r="AM51" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C51,0,"","auto")</f>
         <v>223</v>
       </c>
       <c r="AN51" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C51,0,"","auto")</f>
         <v>111</v>
       </c>
     </row>
@@ -18286,86 +18167,66 @@
         <v>46073</v>
       </c>
       <c r="D52" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C52,0,"","auto")</f>
         <v>212.86000061035156</v>
       </c>
       <c r="E52" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C52,0,"","auto")</f>
         <v>549.45001220703125</v>
       </c>
       <c r="F52" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C52,0,"","auto")</f>
         <v>400394</v>
       </c>
       <c r="G52" s="7">
-        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C52,0,"","auto")</f>
         <v>128267</v>
       </c>
       <c r="H52" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C52,0,"","auto")</f>
         <v>45.159999847412109</v>
       </c>
       <c r="I52" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C52,0,"","auto")</f>
         <v>52.419998168945313</v>
       </c>
       <c r="J52" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C52,0,"","auto")</f>
         <v>63311</v>
       </c>
       <c r="K52" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C52,0,"","auto")</f>
         <v>189697</v>
       </c>
       <c r="L52" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C52,0,"","auto")</f>
         <v>974.4000244140625</v>
       </c>
       <c r="M52" s="6">
-        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C52,0,"","auto")</f>
         <v>1795.780029296875</v>
       </c>
       <c r="N52" s="8">
-        <f t="shared" ref="N52" si="66">(J52+F52-F51)/(D52*H52/100)/1000</f>
         <v>0.62646955781761982</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" ref="O52" si="67">(K52+G52-G51)/(E52*I52/100)/1000</f>
         <v>0.62647713196195987</v>
       </c>
       <c r="P52" s="8">
-        <f t="shared" ref="P52" si="68">((J52+K52)+F52+G52-F51-G51)/(D52*H52/100+E52*I52/100)/1000</f>
         <v>0.62647523664624072</v>
       </c>
       <c r="Q52" s="8">
-        <f t="shared" ref="Q52" si="69">P52*H52*10</f>
         <v>282.91621591351696</v>
       </c>
       <c r="R52" s="8">
-        <f t="shared" ref="R52" si="70">P52*I52*10</f>
         <v>328.39830757885522</v>
       </c>
       <c r="S52" s="4">
-        <f t="shared" ref="S52" si="71">((J52+K52)+F52+G52-F51-G51)/(D52+E52)</f>
         <v>315.69833263839331</v>
       </c>
       <c r="T52" s="5">
-        <f t="shared" ref="T52" si="72">IF(AL52&lt;3000,0,AL52)</f>
         <v>253380</v>
       </c>
       <c r="U52" s="5">
-        <f t="shared" ref="U52" si="73">IF(AM52&lt;3000,0,AM52)</f>
         <v>0</v>
       </c>
       <c r="V52" s="5">
-        <f t="shared" ref="V52" si="74">IF(AN52&lt;3000,0,AN52)</f>
         <v>0</v>
       </c>
       <c r="W52" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X52" s="7">
-        <f t="shared" ref="X52" si="75">J52+K52</f>
         <v>253008</v>
       </c>
       <c r="Y52" s="4">
@@ -18405,19 +18266,15 @@
         <v>0</v>
       </c>
       <c r="AK52" s="4">
-        <f t="shared" ref="AK52" si="76">SUM(AH52:AJ52)</f>
         <v>250000</v>
       </c>
       <c r="AL52" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C52,0,"","auto")</f>
         <v>253380</v>
       </c>
       <c r="AM52" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C52,0,"","auto")</f>
         <v>-228</v>
       </c>
       <c r="AN52" s="5">
-        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C52,0,"","auto")</f>
         <v>-144</v>
       </c>
     </row>
@@ -18428,43 +18285,117 @@
       <c r="C53" s="13">
         <v>46074</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
-      <c r="AI53" s="4"/>
-      <c r="AJ53" s="4"/>
-      <c r="AK53" s="4"/>
-      <c r="AL53" s="4"/>
-      <c r="AM53" s="4"/>
-      <c r="AN53" s="4"/>
+      <c r="D53" s="6">
+        <v>213.03999328613281</v>
+      </c>
+      <c r="E53" s="6">
+        <v>606.719970703125</v>
+      </c>
+      <c r="F53" s="7">
+        <v>401570</v>
+      </c>
+      <c r="G53" s="7">
+        <v>132173</v>
+      </c>
+      <c r="H53" s="6">
+        <v>45.659999847412109</v>
+      </c>
+      <c r="I53" s="6">
+        <v>53.229999542236328</v>
+      </c>
+      <c r="J53" s="6">
+        <v>59001</v>
+      </c>
+      <c r="K53" s="6">
+        <v>195887</v>
+      </c>
+      <c r="L53" s="6">
+        <v>1341.300048828125</v>
+      </c>
+      <c r="M53" s="6">
+        <v>1361.9300537109375</v>
+      </c>
+      <c r="N53" s="8">
+        <v>0.6186335763411146</v>
+      </c>
+      <c r="O53" s="8">
+        <v>0.61863646467483457</v>
+      </c>
+      <c r="P53" s="8">
+        <v>0.61863579609045205</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>282.46910355093712</v>
+      </c>
+      <c r="R53" s="8">
+        <v>329.29983142705771</v>
+      </c>
+      <c r="S53" s="4">
+        <v>317.12941765890713</v>
+      </c>
+      <c r="T53" s="5">
+        <v>253380</v>
+      </c>
+      <c r="U53" s="5">
+        <v>0</v>
+      </c>
+      <c r="V53" s="5">
+        <v>0</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X53" s="7">
+        <v>254888</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z53" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA53" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB53" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC53" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE53" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF53" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG53" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH53" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AL53" s="5">
+        <v>253380</v>
+      </c>
+      <c r="AM53" s="5">
+        <v>-228</v>
+      </c>
+      <c r="AN53" s="5">
+        <v>-144</v>
+      </c>
     </row>
     <row r="54" spans="2:40">
       <c r="B54" s="20">
@@ -18473,43 +18404,117 @@
       <c r="C54" s="13">
         <v>46075</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-      <c r="AG54" s="4"/>
-      <c r="AH54" s="4"/>
-      <c r="AI54" s="4"/>
-      <c r="AJ54" s="4"/>
-      <c r="AK54" s="4"/>
-      <c r="AL54" s="4"/>
-      <c r="AM54" s="4"/>
-      <c r="AN54" s="4"/>
+      <c r="D54" s="6">
+        <v>202.46723937988281</v>
+      </c>
+      <c r="E54" s="6">
+        <v>612.60107421875</v>
+      </c>
+      <c r="F54" s="7">
+        <v>402418.75</v>
+      </c>
+      <c r="G54" s="7">
+        <v>135138.421875</v>
+      </c>
+      <c r="H54" s="6">
+        <v>45.630058288574219</v>
+      </c>
+      <c r="I54" s="6">
+        <v>52.749553680419922</v>
+      </c>
+      <c r="J54" s="6">
+        <v>57297.37890625</v>
+      </c>
+      <c r="K54" s="6">
+        <v>200411.234375</v>
+      </c>
+      <c r="L54" s="6">
+        <v>1504.0687255859375</v>
+      </c>
+      <c r="M54" s="6">
+        <v>1568.1141357421875</v>
+      </c>
+      <c r="N54" s="8">
+        <v>0.62938301982522504</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0.62936785764339598</v>
+      </c>
+      <c r="P54" s="8">
+        <v>0.62937122869063344</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>287.18245850305181</v>
+      </c>
+      <c r="R54" s="8">
+        <v>331.99051412728409</v>
+      </c>
+      <c r="S54" s="4">
+        <v>320.8599583531751</v>
+      </c>
+      <c r="T54" s="5">
+        <v>254907</v>
+      </c>
+      <c r="U54" s="5">
+        <v>0</v>
+      </c>
+      <c r="V54" s="5">
+        <v>0</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X54" s="7">
+        <v>257708.61328125</v>
+      </c>
+      <c r="Y54" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z54" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA54" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB54" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC54" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE54" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF54" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG54" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH54" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AL54" s="5">
+        <v>254907</v>
+      </c>
+      <c r="AM54" s="5">
+        <v>74</v>
+      </c>
+      <c r="AN54" s="5">
+        <v>-93</v>
+      </c>
     </row>
     <row r="55" spans="2:40">
       <c r="B55" s="20">
@@ -18518,43 +18523,117 @@
       <c r="C55" s="13">
         <v>46076</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
-      <c r="AI55" s="4"/>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
-      <c r="AL55" s="4"/>
-      <c r="AM55" s="4"/>
-      <c r="AN55" s="4"/>
+      <c r="D55" s="6">
+        <v>212.8800048828125</v>
+      </c>
+      <c r="E55" s="6">
+        <v>614.21002197265625</v>
+      </c>
+      <c r="F55" s="7">
+        <v>403477</v>
+      </c>
+      <c r="G55" s="7">
+        <v>138621</v>
+      </c>
+      <c r="H55" s="6">
+        <v>45.709999084472656</v>
+      </c>
+      <c r="I55" s="6">
+        <v>52.110000610351563</v>
+      </c>
+      <c r="J55" s="6">
+        <v>59284</v>
+      </c>
+      <c r="K55" s="6">
+        <v>194998</v>
+      </c>
+      <c r="L55" s="6">
+        <v>1603</v>
+      </c>
+      <c r="M55" s="6">
+        <v>1991.47998046875</v>
+      </c>
+      <c r="N55" s="8">
+        <v>0.62011953930321584</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0.62012614156858725</v>
+      </c>
+      <c r="P55" s="8">
+        <v>0.62012460229632449</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>283.45895003223961</v>
+      </c>
+      <c r="R55" s="8">
+        <v>323.14693404155491</v>
+      </c>
+      <c r="S55" s="4">
+        <v>312.93186922954936</v>
+      </c>
+      <c r="T55" s="5">
+        <v>257823</v>
+      </c>
+      <c r="U55" s="5">
+        <v>0</v>
+      </c>
+      <c r="V55" s="5">
+        <v>0</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X55" s="7">
+        <v>254282</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z55" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA55" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB55" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC55" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE55" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF55" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG55" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH55" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AL55" s="5">
+        <v>257823</v>
+      </c>
+      <c r="AM55" s="5">
+        <v>-237</v>
+      </c>
+      <c r="AN55" s="5">
+        <v>125</v>
+      </c>
     </row>
     <row r="56" spans="2:40">
       <c r="B56" s="20">
@@ -18563,43 +18642,141 @@
       <c r="C56" s="13">
         <v>46077</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-      <c r="AG56" s="4"/>
-      <c r="AH56" s="4"/>
-      <c r="AI56" s="4"/>
-      <c r="AJ56" s="4"/>
-      <c r="AK56" s="4"/>
-      <c r="AL56" s="4"/>
-      <c r="AM56" s="4"/>
-      <c r="AN56" s="4"/>
+      <c r="D56" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C56,0,"","auto")</f>
+        <v>203.47999572753906</v>
+      </c>
+      <c r="E56" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C56,0,"","auto")</f>
+        <v>621.25</v>
+      </c>
+      <c r="F56" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C56,0,"","auto")</f>
+        <v>403956</v>
+      </c>
+      <c r="G56" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C56,0,"","auto")</f>
+        <v>140305</v>
+      </c>
+      <c r="H56" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C56,0,"","auto")</f>
+        <v>45.229999542236328</v>
+      </c>
+      <c r="I56" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C56,0,"","auto")</f>
+        <v>52.130001068115234</v>
+      </c>
+      <c r="J56" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C56,0,"","auto")</f>
+        <v>57052</v>
+      </c>
+      <c r="K56" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C56,0,"","auto")</f>
+        <v>200759</v>
+      </c>
+      <c r="L56" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C56,0,"","auto")</f>
+        <v>1432.4000244140625</v>
+      </c>
+      <c r="M56" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C56,0,"","auto")</f>
+        <v>1232.3199462890625</v>
+      </c>
+      <c r="N56" s="8">
+        <f t="shared" ref="N56" si="0">(J56+F56-F55)/(D56*H56/100)/1000</f>
+        <v>0.6251059313928754</v>
+      </c>
+      <c r="O56" s="8">
+        <f t="shared" ref="O56" si="1">(K56+G56-G55)/(E56*I56/100)/1000</f>
+        <v>0.62509874779713326</v>
+      </c>
+      <c r="P56" s="8">
+        <f t="shared" ref="P56" si="2">((J56+K56)+F56+G56-F55-G55)/(D56*H56/100+E56*I56/100)/1000</f>
+        <v>0.62510033747821026</v>
+      </c>
+      <c r="Q56" s="8">
+        <f t="shared" ref="Q56" si="3">P56*H56*10</f>
+        <v>282.73287977991225</v>
+      </c>
+      <c r="R56" s="8">
+        <f t="shared" ref="R56" si="4">P56*I56*10</f>
+        <v>325.86481260418293</v>
+      </c>
+      <c r="S56" s="4">
+        <f t="shared" ref="S56" si="5">((J56+K56)+F56+G56-F55-G55)/(D56+E56)</f>
+        <v>315.2231655775571</v>
+      </c>
+      <c r="T56" s="5">
+        <f t="shared" ref="T56" si="6">IF(AL56&lt;3000,0,AL56)</f>
+        <v>257769</v>
+      </c>
+      <c r="U56" s="5">
+        <f t="shared" ref="U56" si="7">IF(AM56&lt;3000,0,AM56)</f>
+        <v>0</v>
+      </c>
+      <c r="V56" s="5">
+        <f t="shared" ref="V56" si="8">IF(AN56&lt;3000,0,AN56)</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X56" s="7">
+        <f t="shared" ref="X56" si="9">J56+K56</f>
+        <v>257811</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z56" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA56" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB56" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC56" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD56" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE56" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF56" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG56" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH56" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="4">
+        <f t="shared" ref="AK56" si="10">SUM(AH56:AJ56)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL56" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C56,0,"","auto")</f>
+        <v>257769</v>
+      </c>
+      <c r="AM56" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C56,0,"","auto")</f>
+        <v>65</v>
+      </c>
+      <c r="AN56" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C56,0,"","auto")</f>
+        <v>-23</v>
+      </c>
     </row>
     <row r="57" spans="2:40">
       <c r="B57" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -11979,7 +11979,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18785,43 +18785,141 @@
       <c r="C57" s="13">
         <v>46078</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="4"/>
-      <c r="AI57" s="4"/>
-      <c r="AJ57" s="4"/>
-      <c r="AK57" s="4"/>
-      <c r="AL57" s="4"/>
-      <c r="AM57" s="4"/>
-      <c r="AN57" s="4"/>
+      <c r="D57" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C57,0,"","auto")</f>
+        <v>212.36000061035156</v>
+      </c>
+      <c r="E57" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C57,0,"","auto")</f>
+        <v>622.54998779296875</v>
+      </c>
+      <c r="F57" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C57,0,"","auto")</f>
+        <v>406996</v>
+      </c>
+      <c r="G57" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C57,0,"","auto")</f>
+        <v>150504</v>
+      </c>
+      <c r="H57" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C57,0,"","auto")</f>
+        <v>45.259998321533203</v>
+      </c>
+      <c r="I57" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C57,0,"","auto")</f>
+        <v>51.790000915527344</v>
+      </c>
+      <c r="J57" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C57,0,"","auto")</f>
+        <v>59800</v>
+      </c>
+      <c r="K57" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C57,0,"","auto")</f>
+        <v>200600</v>
+      </c>
+      <c r="L57" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C57,0,"","auto")</f>
+        <v>1475.5</v>
+      </c>
+      <c r="M57" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C57,0,"","auto")</f>
+        <v>2343.780029296875</v>
+      </c>
+      <c r="N57" s="8">
+        <f t="shared" ref="N57" si="11">(J57+F57-F56)/(D57*H57/100)/1000</f>
+        <v>0.65380603483560773</v>
+      </c>
+      <c r="O57" s="8">
+        <f t="shared" ref="O57" si="12">(K57+G57-G56)/(E57*I57/100)/1000</f>
+        <v>0.65380524258121742</v>
+      </c>
+      <c r="P57" s="8">
+        <f t="shared" ref="P57" si="13">((J57+K57)+F57+G57-F56-G56)/(D57*H57/100+E57*I57/100)/1000</f>
+        <v>0.65380542451880452</v>
+      </c>
+      <c r="Q57" s="8">
+        <f t="shared" ref="Q57" si="14">P57*H57*10</f>
+        <v>295.91232416330394</v>
+      </c>
+      <c r="R57" s="8">
+        <f t="shared" ref="R57" si="15">P57*I57*10</f>
+        <v>338.60583534405629</v>
+      </c>
+      <c r="S57" s="4">
+        <f t="shared" ref="S57" si="16">((J57+K57)+F57+G57-F56-G56)/(D57+E57)</f>
+        <v>327.74670778979004</v>
+      </c>
+      <c r="T57" s="5">
+        <f t="shared" ref="T57" si="17">IF(AL57&lt;3000,0,AL57)</f>
+        <v>257769</v>
+      </c>
+      <c r="U57" s="5">
+        <f t="shared" ref="U57" si="18">IF(AM57&lt;3000,0,AM57)</f>
+        <v>0</v>
+      </c>
+      <c r="V57" s="5">
+        <f t="shared" ref="V57" si="19">IF(AN57&lt;3000,0,AN57)</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X57" s="7">
+        <f t="shared" ref="X57" si="20">J57+K57</f>
+        <v>260400</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z57" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA57" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB57" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC57" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE57" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF57" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG57" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH57" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="4">
+        <f t="shared" ref="AK57" si="21">SUM(AH57:AJ57)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL57" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C57,0,"","auto")</f>
+        <v>257769</v>
+      </c>
+      <c r="AM57" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C57,0,"","auto")</f>
+        <v>65</v>
+      </c>
+      <c r="AN57" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C57,0,"","auto")</f>
+        <v>-23</v>
+      </c>
     </row>
     <row r="58" spans="2:40">
       <c r="B58" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -1246,7 +1246,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1337,9 +1336,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000025-06C4-4EBD-9DB5-5F6028942F55}"/>
                 </c:ext>
@@ -1361,9 +1358,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1664,7 +1659,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1673,9 +1667,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -1683,7 +1675,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1692,9 +1683,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-3293-492F-8385-7317FCBDA947}"/>
                 </c:ext>
@@ -2112,7 +2101,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3834,7 +3822,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3899,7 +3886,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3908,9 +3894,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3918,7 +3902,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3927,9 +3910,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4229,7 +4210,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4238,9 +4218,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4248,7 +4226,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4257,9 +4234,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4557,7 +4532,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4566,9 +4540,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4576,7 +4548,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4585,9 +4556,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4888,7 +4857,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4897,9 +4865,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4907,7 +4873,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4916,9 +4881,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5335,7 +5298,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6372,7 +6334,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6437,7 +6398,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6446,9 +6406,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6456,7 +6414,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6465,9 +6422,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6767,7 +6722,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6776,9 +6730,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -7196,7 +7148,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11976,10 +11927,10 @@
   <dimension ref="A1:BL92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18928,43 +18879,141 @@
       <c r="C58" s="13">
         <v>46079</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
-      <c r="AH58" s="4"/>
-      <c r="AI58" s="4"/>
-      <c r="AJ58" s="4"/>
-      <c r="AK58" s="4"/>
-      <c r="AL58" s="4"/>
-      <c r="AM58" s="4"/>
-      <c r="AN58" s="4"/>
+      <c r="D58" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C58,0,"","auto")</f>
+        <v>212.77999877929688</v>
+      </c>
+      <c r="E58" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C58,0,"","auto")</f>
+        <v>584.28997802734375</v>
+      </c>
+      <c r="F58" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C58,0,"","auto")</f>
+        <v>404172</v>
+      </c>
+      <c r="G58" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C58,0,"","auto")</f>
+        <v>141657</v>
+      </c>
+      <c r="H58" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C58,0,"","auto")</f>
+        <v>45.080001831054688</v>
+      </c>
+      <c r="I58" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C58,0,"","auto")</f>
+        <v>51.419998168945313</v>
+      </c>
+      <c r="J58" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C58,0,"","auto")</f>
+        <v>64037</v>
+      </c>
+      <c r="K58" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C58,0,"","auto")</f>
+        <v>200575</v>
+      </c>
+      <c r="L58" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C58,0,"","auto")</f>
+        <v>1418.300048828125</v>
+      </c>
+      <c r="M58" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C58,0,"","auto")</f>
+        <v>2072.97998046875</v>
+      </c>
+      <c r="N58" s="8">
+        <f t="shared" ref="N58" si="22">(J58+F58-F57)/(D58*H58/100)/1000</f>
+        <v>0.63815905711160814</v>
+      </c>
+      <c r="O58" s="8">
+        <f t="shared" ref="O58" si="23">(K58+G58-G57)/(E58*I58/100)/1000</f>
+        <v>0.63815334196297047</v>
+      </c>
+      <c r="P58" s="8">
+        <f t="shared" ref="P58" si="24">((J58+K58)+F58+G58-F57-G57)/(D58*H58/100+E58*I58/100)/1000</f>
+        <v>0.63815472504842796</v>
+      </c>
+      <c r="Q58" s="8">
+        <f t="shared" ref="Q58" si="25">P58*H58*10</f>
+        <v>287.68016173679331</v>
+      </c>
+      <c r="R58" s="8">
+        <f t="shared" ref="R58" si="26">P58*I58*10</f>
+        <v>328.13914793493961</v>
+      </c>
+      <c r="S58" s="4">
+        <f t="shared" ref="S58" si="27">((J58+K58)+F58+G58-F57-G57)/(D58+E58)</f>
+        <v>317.3385114985461</v>
+      </c>
+      <c r="T58" s="5">
+        <f t="shared" ref="T58" si="28">IF(AL58&lt;3000,0,AL58)</f>
+        <v>260673</v>
+      </c>
+      <c r="U58" s="5">
+        <f t="shared" ref="U58" si="29">IF(AM58&lt;3000,0,AM58)</f>
+        <v>0</v>
+      </c>
+      <c r="V58" s="5">
+        <f t="shared" ref="V58" si="30">IF(AN58&lt;3000,0,AN58)</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X58" s="7">
+        <f t="shared" ref="X58" si="31">J58+K58</f>
+        <v>264612</v>
+      </c>
+      <c r="Y58" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z58" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA58" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB58" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC58" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE58" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF58" s="9">
+        <v>1369.99</v>
+      </c>
+      <c r="AG58" s="9">
+        <v>1287.671</v>
+      </c>
+      <c r="AH58" s="4">
+        <v>250000</v>
+      </c>
+      <c r="AI58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="4">
+        <f t="shared" ref="AK58" si="32">SUM(AH58:AJ58)</f>
+        <v>250000</v>
+      </c>
+      <c r="AL58" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C58,0,"","auto")</f>
+        <v>260673</v>
+      </c>
+      <c r="AM58" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C58,0,"","auto")</f>
+        <v>-219</v>
+      </c>
+      <c r="AN58" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C58,0,"","auto")</f>
+        <v>-54</v>
+      </c>
     </row>
     <row r="59" spans="2:40">
       <c r="B59" s="20">

--- a/Actual vs Plan.xlsx
+++ b/Actual vs Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -3822,6 +3822,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3886,6 +3887,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3894,7 +3896,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -3902,6 +3906,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3910,7 +3915,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4210,6 +4217,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4218,7 +4226,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4226,6 +4236,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4234,7 +4245,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4532,6 +4545,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4540,7 +4554,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4548,6 +4564,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4556,7 +4573,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4857,6 +4876,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4865,7 +4885,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -4873,6 +4895,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4881,7 +4904,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-48A3-4227-866C-E3F61A29B8C1}"/>
                 </c:ext>
@@ -5298,6 +5323,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5409,6 +5435,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5473,6 +5500,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5481,7 +5509,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5489,6 +5519,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5497,7 +5528,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5797,6 +5830,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -5805,7 +5839,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F8C4-45AB-8B58-07FEC847C1C3}"/>
                 </c:ext>
@@ -5972,97 +6008,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1369.99</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6223,6 +6259,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6334,6 +6371,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6398,6 +6436,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6406,7 +6445,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-DDA2-42C6-9491-EA0926A527DF}"/>
                 </c:ext>
@@ -6414,6 +6455,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6422,7 +6464,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6722,6 +6766,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -6730,7 +6775,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8A28-4297-AE44-C665D87E7819}"/>
                 </c:ext>
@@ -6898,97 +6945,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1287.671</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7148,6 +7195,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7254,6 +7302,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7318,6 +7367,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7326,7 +7376,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-E73E-4A56-8161-D7588DDD0A4F}"/>
                 </c:ext>
@@ -7334,6 +7386,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7342,7 +7395,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -7642,6 +7697,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="30"/>
+              <c:layout/>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -7650,7 +7706,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1CEE-450F-85DF-EE616CFE4BCC}"/>
                 </c:ext>
@@ -7832,82 +7890,82 @@
                   <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>250000</c:v>
+                  <c:v>253500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8068,6 +8126,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11927,10 +11986,10 @@
   <dimension ref="A1:BL92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R68" sqref="R68"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12246,13 +12305,13 @@
         <v>52.51</v>
       </c>
       <c r="AF3" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG3" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH3" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI3" s="9">
         <v>0</v>
@@ -12369,13 +12428,13 @@
         <v>52.51</v>
       </c>
       <c r="AF4" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG4" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH4" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI4" s="9">
         <v>0</v>
@@ -12516,13 +12575,13 @@
         <v>52.51</v>
       </c>
       <c r="AF5" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG5" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH5" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI5" s="9">
         <v>0</v>
@@ -12660,13 +12719,13 @@
         <v>52.51</v>
       </c>
       <c r="AF6" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG6" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH6" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI6" s="9">
         <v>0</v>
@@ -12804,13 +12863,13 @@
         <v>52.51</v>
       </c>
       <c r="AF7" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG7" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH7" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI7" s="9">
         <v>0</v>
@@ -12927,13 +12986,13 @@
         <v>52.51</v>
       </c>
       <c r="AF8" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG8" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH8" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI8" s="9">
         <v>0</v>
@@ -12942,7 +13001,8 @@
         <v>0</v>
       </c>
       <c r="AK8" s="4">
-        <v>250000</v>
+        <f>SUM(AH8:AJ8)</f>
+        <v>253500</v>
       </c>
       <c r="AL8" s="5">
         <v>256887.96875</v>
@@ -13050,13 +13110,13 @@
         <v>52.51</v>
       </c>
       <c r="AF9" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG9" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH9" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI9" s="9">
         <v>0</v>
@@ -13065,7 +13125,8 @@
         <v>0</v>
       </c>
       <c r="AK9" s="4">
-        <v>250000</v>
+        <f t="shared" ref="AK9:AK58" si="0">SUM(AH9:AJ9)</f>
+        <v>253500</v>
       </c>
       <c r="AL9" s="5">
         <v>254282.984375</v>
@@ -13173,13 +13234,13 @@
         <v>52.51</v>
       </c>
       <c r="AF10" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG10" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH10" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI10" s="9">
         <v>0</v>
@@ -13188,7 +13249,8 @@
         <v>0</v>
       </c>
       <c r="AK10" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL10" s="5">
         <v>253522</v>
@@ -13296,13 +13358,13 @@
         <v>52.51</v>
       </c>
       <c r="AF11" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG11" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH11" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI11" s="9">
         <v>0</v>
@@ -13311,7 +13373,8 @@
         <v>0</v>
       </c>
       <c r="AK11" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL11" s="5">
         <v>253856.96875</v>
@@ -13419,13 +13482,13 @@
         <v>52.51</v>
       </c>
       <c r="AF12" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG12" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH12" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI12" s="9">
         <v>0</v>
@@ -13434,7 +13497,8 @@
         <v>0</v>
       </c>
       <c r="AK12" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL12" s="5">
         <v>250760.046875</v>
@@ -13542,13 +13606,13 @@
         <v>52.51</v>
       </c>
       <c r="AF13" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG13" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH13" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI13" s="9">
         <v>0</v>
@@ -13557,7 +13621,8 @@
         <v>0</v>
       </c>
       <c r="AK13" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL13" s="5">
         <v>255225</v>
@@ -13662,13 +13727,13 @@
         <v>52.51</v>
       </c>
       <c r="AF14" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG14" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH14" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI14" s="9">
         <v>0</v>
@@ -13677,7 +13742,8 @@
         <v>0</v>
       </c>
       <c r="AK14" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL14" s="5">
         <v>255702.984375</v>
@@ -13782,13 +13848,13 @@
         <v>52.51</v>
       </c>
       <c r="AF15" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG15" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH15" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI15" s="9">
         <v>0</v>
@@ -13797,7 +13863,8 @@
         <v>0</v>
       </c>
       <c r="AK15" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL15" s="5">
         <v>253689.984375</v>
@@ -13902,13 +13969,13 @@
         <v>52.51</v>
       </c>
       <c r="AF16" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG16" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH16" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI16" s="9">
         <v>0</v>
@@ -13917,7 +13984,8 @@
         <v>0</v>
       </c>
       <c r="AK16" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL16" s="5">
         <v>252801</v>
@@ -14022,13 +14090,13 @@
         <v>52.51</v>
       </c>
       <c r="AF17" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG17" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH17" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI17" s="9">
         <v>0</v>
@@ -14037,7 +14105,8 @@
         <v>0</v>
       </c>
       <c r="AK17" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL17" s="5">
         <v>253021.71875</v>
@@ -14142,13 +14211,13 @@
         <v>52.51</v>
       </c>
       <c r="AF18" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG18" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH18" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI18" s="9">
         <v>0</v>
@@ -14157,7 +14226,8 @@
         <v>0</v>
       </c>
       <c r="AK18" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL18" s="5">
         <v>228562.125</v>
@@ -14262,13 +14332,13 @@
         <v>52.51</v>
       </c>
       <c r="AF19" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG19" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH19" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI19" s="9">
         <v>0</v>
@@ -14277,7 +14347,8 @@
         <v>0</v>
       </c>
       <c r="AK19" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL19" s="5">
         <v>240025.125</v>
@@ -14382,13 +14453,13 @@
         <v>52.51</v>
       </c>
       <c r="AF20" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG20" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH20" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI20" s="9">
         <v>0</v>
@@ -14397,7 +14468,8 @@
         <v>0</v>
       </c>
       <c r="AK20" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL20" s="5">
         <v>251318.0625</v>
@@ -14502,13 +14574,13 @@
         <v>52.51</v>
       </c>
       <c r="AF21" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG21" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH21" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI21" s="9">
         <v>0</v>
@@ -14517,7 +14589,8 @@
         <v>0</v>
       </c>
       <c r="AK21" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL21" s="5">
         <v>256503.984375</v>
@@ -14622,13 +14695,13 @@
         <v>52.51</v>
       </c>
       <c r="AF22" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG22" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH22" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI22" s="9">
         <v>0</v>
@@ -14637,7 +14710,8 @@
         <v>0</v>
       </c>
       <c r="AK22" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL22" s="5">
         <v>255702.984375</v>
@@ -14742,13 +14816,13 @@
         <v>52.51</v>
       </c>
       <c r="AF23" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG23" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH23" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI23" s="9">
         <v>0</v>
@@ -14757,7 +14831,8 @@
         <v>0</v>
       </c>
       <c r="AK23" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL23" s="5">
         <v>253901.984375</v>
@@ -14862,13 +14937,13 @@
         <v>52.51</v>
       </c>
       <c r="AF24" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG24" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH24" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI24" s="9">
         <v>0</v>
@@ -14877,7 +14952,8 @@
         <v>0</v>
       </c>
       <c r="AK24" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL24" s="5">
         <v>252693.03125</v>
@@ -14982,13 +15058,13 @@
         <v>52.51</v>
       </c>
       <c r="AF25" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG25" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH25" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI25" s="9">
         <v>0</v>
@@ -14997,7 +15073,8 @@
         <v>0</v>
       </c>
       <c r="AK25" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL25" s="5">
         <v>254845.9375</v>
@@ -15102,13 +15179,13 @@
         <v>52.51</v>
       </c>
       <c r="AF26" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG26" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH26" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI26" s="9">
         <v>0</v>
@@ -15117,7 +15194,8 @@
         <v>0</v>
       </c>
       <c r="AK26" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL26" s="5">
         <v>249151.953125</v>
@@ -15222,13 +15300,13 @@
         <v>52.51</v>
       </c>
       <c r="AF27" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG27" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH27" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI27" s="9">
         <v>0</v>
@@ -15237,7 +15315,8 @@
         <v>0</v>
       </c>
       <c r="AK27" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL27" s="5">
         <v>245472.703125</v>
@@ -15342,13 +15421,13 @@
         <v>52.51</v>
       </c>
       <c r="AF28" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG28" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH28" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI28" s="9">
         <v>0</v>
@@ -15357,7 +15436,8 @@
         <v>0</v>
       </c>
       <c r="AK28" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL28" s="5">
         <v>219803.984375</v>
@@ -15462,13 +15542,13 @@
         <v>52.51</v>
       </c>
       <c r="AF29" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG29" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH29" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI29" s="9">
         <v>0</v>
@@ -15477,7 +15557,8 @@
         <v>0</v>
       </c>
       <c r="AK29" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL29" s="5">
         <v>218216.3125</v>
@@ -15582,13 +15663,13 @@
         <v>52.51</v>
       </c>
       <c r="AF30" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG30" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH30" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI30" s="9">
         <v>0</v>
@@ -15597,7 +15678,8 @@
         <v>0</v>
       </c>
       <c r="AK30" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL30" s="5">
         <v>244724.0625</v>
@@ -15702,13 +15784,13 @@
         <v>52.51</v>
       </c>
       <c r="AF31" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG31" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH31" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI31" s="9">
         <v>0</v>
@@ -15717,7 +15799,8 @@
         <v>0</v>
       </c>
       <c r="AK31" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL31" s="5">
         <v>249864.984375</v>
@@ -15822,13 +15905,13 @@
         <v>52.51</v>
       </c>
       <c r="AF32" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG32" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH32" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI32" s="9">
         <v>0</v>
@@ -15837,7 +15920,8 @@
         <v>0</v>
       </c>
       <c r="AK32" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL32" s="5">
         <v>248856.046875</v>
@@ -15941,13 +16025,13 @@
         <v>52.51</v>
       </c>
       <c r="AF33" s="9">
-        <v>1369.99</v>
+        <v>1400</v>
       </c>
       <c r="AG33" s="9">
-        <v>1287.671</v>
+        <v>1667</v>
       </c>
       <c r="AH33" s="4">
-        <v>250000</v>
+        <v>253500</v>
       </c>
       <c r="AI33" s="9">
         <v>0</v>
@@ -15956,7 +16040,8 @@
         <v>0</v>
       </c>
       <c r="AK33" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>253500</v>
       </c>
       <c r="AL33" s="5">
         <v>252644.9375</v>
@@ -16060,13 +16145,13 @@
         <v>52.51</v>
       </c>
       <c r="AF34" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG34" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH34" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI34" s="9">
         <v>0</v>
@@ -16075,7 +16160,8 @@
         <v>0</v>
       </c>
       <c r="AK34" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL34" s="5">
         <v>244715</v>
@@ -16179,13 +16265,13 @@
         <v>52.51</v>
       </c>
       <c r="AF35" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG35" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH35" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI35" s="9">
         <v>0</v>
@@ -16194,7 +16280,8 @@
         <v>0</v>
       </c>
       <c r="AK35" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL35" s="5">
         <v>245886</v>
@@ -16298,13 +16385,13 @@
         <v>52.51</v>
       </c>
       <c r="AF36" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG36" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH36" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI36" s="9">
         <v>0</v>
@@ -16313,7 +16400,8 @@
         <v>0</v>
       </c>
       <c r="AK36" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL36" s="5">
         <v>206677</v>
@@ -16417,13 +16505,13 @@
         <v>52.51</v>
       </c>
       <c r="AF37" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG37" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH37" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI37" s="9">
         <v>0</v>
@@ -16432,7 +16520,8 @@
         <v>0</v>
       </c>
       <c r="AK37" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL37" s="5">
         <v>206677</v>
@@ -16536,13 +16625,13 @@
         <v>52.51</v>
       </c>
       <c r="AF38" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG38" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH38" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI38" s="9">
         <v>0</v>
@@ -16551,7 +16640,8 @@
         <v>0</v>
       </c>
       <c r="AK38" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL38" s="5">
         <v>214459</v>
@@ -16655,13 +16745,13 @@
         <v>52.51</v>
       </c>
       <c r="AF39" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG39" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH39" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI39" s="9">
         <v>0</v>
@@ -16670,7 +16760,8 @@
         <v>0</v>
       </c>
       <c r="AK39" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL39" s="5">
         <v>249405</v>
@@ -16774,13 +16865,13 @@
         <v>52.51</v>
       </c>
       <c r="AF40" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG40" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH40" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI40" s="9">
         <v>0</v>
@@ -16789,7 +16880,8 @@
         <v>0</v>
       </c>
       <c r="AK40" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL40" s="5">
         <v>243968</v>
@@ -16893,13 +16985,13 @@
         <v>52.51</v>
       </c>
       <c r="AF41" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG41" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH41" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI41" s="9">
         <v>0</v>
@@ -16908,7 +17000,8 @@
         <v>0</v>
       </c>
       <c r="AK41" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL41" s="5">
         <v>261643</v>
@@ -17012,13 +17105,13 @@
         <v>52.51</v>
       </c>
       <c r="AF42" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG42" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH42" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI42" s="9">
         <v>0</v>
@@ -17027,7 +17120,8 @@
         <v>0</v>
       </c>
       <c r="AK42" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL42" s="5">
         <v>261643</v>
@@ -17131,13 +17225,13 @@
         <v>52.51</v>
       </c>
       <c r="AF43" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG43" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH43" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI43" s="9">
         <v>0</v>
@@ -17146,7 +17240,8 @@
         <v>0</v>
       </c>
       <c r="AK43" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL43" s="5">
         <v>246596</v>
@@ -17250,13 +17345,13 @@
         <v>52.51</v>
       </c>
       <c r="AF44" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG44" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH44" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI44" s="9">
         <v>0</v>
@@ -17265,7 +17360,8 @@
         <v>0</v>
       </c>
       <c r="AK44" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL44" s="5">
         <v>246056</v>
@@ -17369,13 +17465,13 @@
         <v>52.51</v>
       </c>
       <c r="AF45" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG45" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH45" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI45" s="9">
         <v>0</v>
@@ -17384,7 +17480,8 @@
         <v>0</v>
       </c>
       <c r="AK45" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL45" s="5">
         <v>258112.046875</v>
@@ -17488,13 +17585,13 @@
         <v>52.51</v>
       </c>
       <c r="AF46" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG46" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH46" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI46" s="9">
         <v>0</v>
@@ -17503,7 +17600,8 @@
         <v>0</v>
       </c>
       <c r="AK46" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL46" s="5">
         <v>261691.796875</v>
@@ -17607,13 +17705,13 @@
         <v>52.51</v>
       </c>
       <c r="AF47" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG47" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH47" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI47" s="9">
         <v>0</v>
@@ -17622,7 +17720,8 @@
         <v>0</v>
       </c>
       <c r="AK47" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL47" s="5">
         <v>244544.515625</v>
@@ -17726,13 +17825,13 @@
         <v>52.51</v>
       </c>
       <c r="AF48" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG48" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH48" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI48" s="9">
         <v>0</v>
@@ -17741,7 +17840,8 @@
         <v>0</v>
       </c>
       <c r="AK48" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL48" s="5">
         <v>202759.53125</v>
@@ -17845,13 +17945,13 @@
         <v>52.51</v>
       </c>
       <c r="AF49" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG49" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH49" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI49" s="9">
         <v>0</v>
@@ -17860,7 +17960,8 @@
         <v>0</v>
       </c>
       <c r="AK49" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL49" s="5">
         <v>249131.09375</v>
@@ -17964,13 +18065,13 @@
         <v>52.51</v>
       </c>
       <c r="AF50" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG50" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH50" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI50" s="9">
         <v>0</v>
@@ -17979,7 +18080,8 @@
         <v>0</v>
       </c>
       <c r="AK50" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL50" s="5">
         <v>257516</v>
@@ -18083,13 +18185,13 @@
         <v>52.51</v>
       </c>
       <c r="AF51" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG51" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH51" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI51" s="9">
         <v>0</v>
@@ -18098,7 +18200,8 @@
         <v>0</v>
       </c>
       <c r="AK51" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL51" s="5">
         <v>257516</v>
@@ -18202,13 +18305,13 @@
         <v>52.51</v>
       </c>
       <c r="AF52" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG52" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH52" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI52" s="9">
         <v>0</v>
@@ -18217,7 +18320,8 @@
         <v>0</v>
       </c>
       <c r="AK52" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL52" s="5">
         <v>253380</v>
@@ -18321,13 +18425,13 @@
         <v>52.51</v>
       </c>
       <c r="AF53" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG53" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH53" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI53" s="9">
         <v>0</v>
@@ -18336,7 +18440,8 @@
         <v>0</v>
       </c>
       <c r="AK53" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL53" s="5">
         <v>253380</v>
@@ -18440,13 +18545,13 @@
         <v>52.51</v>
       </c>
       <c r="AF54" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG54" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH54" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI54" s="9">
         <v>0</v>
@@ -18455,7 +18560,8 @@
         <v>0</v>
       </c>
       <c r="AK54" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL54" s="5">
         <v>254907</v>
@@ -18559,13 +18665,13 @@
         <v>52.51</v>
       </c>
       <c r="AF55" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG55" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH55" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI55" s="9">
         <v>0</v>
@@ -18574,7 +18680,8 @@
         <v>0</v>
       </c>
       <c r="AK55" s="4">
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL55" s="5">
         <v>257823</v>
@@ -18634,46 +18741,46 @@
         <v>1232.3199462890625</v>
       </c>
       <c r="N56" s="8">
-        <f t="shared" ref="N56" si="0">(J56+F56-F55)/(D56*H56/100)/1000</f>
+        <f t="shared" ref="N56" si="1">(J56+F56-F55)/(D56*H56/100)/1000</f>
         <v>0.6251059313928754</v>
       </c>
       <c r="O56" s="8">
-        <f t="shared" ref="O56" si="1">(K56+G56-G55)/(E56*I56/100)/1000</f>
+        <f t="shared" ref="O56" si="2">(K56+G56-G55)/(E56*I56/100)/1000</f>
         <v>0.62509874779713326</v>
       </c>
       <c r="P56" s="8">
-        <f t="shared" ref="P56" si="2">((J56+K56)+F56+G56-F55-G55)/(D56*H56/100+E56*I56/100)/1000</f>
+        <f t="shared" ref="P56" si="3">((J56+K56)+F56+G56-F55-G55)/(D56*H56/100+E56*I56/100)/1000</f>
         <v>0.62510033747821026</v>
       </c>
       <c r="Q56" s="8">
-        <f t="shared" ref="Q56" si="3">P56*H56*10</f>
+        <f t="shared" ref="Q56" si="4">P56*H56*10</f>
         <v>282.73287977991225</v>
       </c>
       <c r="R56" s="8">
-        <f t="shared" ref="R56" si="4">P56*I56*10</f>
+        <f t="shared" ref="R56" si="5">P56*I56*10</f>
         <v>325.86481260418293</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" ref="S56" si="5">((J56+K56)+F56+G56-F55-G55)/(D56+E56)</f>
+        <f t="shared" ref="S56" si="6">((J56+K56)+F56+G56-F55-G55)/(D56+E56)</f>
         <v>315.2231655775571</v>
       </c>
       <c r="T56" s="5">
-        <f t="shared" ref="T56" si="6">IF(AL56&lt;3000,0,AL56)</f>
+        <f t="shared" ref="T56" si="7">IF(AL56&lt;3000,0,AL56)</f>
         <v>257769</v>
       </c>
       <c r="U56" s="5">
-        <f t="shared" ref="U56" si="7">IF(AM56&lt;3000,0,AM56)</f>
+        <f t="shared" ref="U56" si="8">IF(AM56&lt;3000,0,AM56)</f>
         <v>0</v>
       </c>
       <c r="V56" s="5">
-        <f t="shared" ref="V56" si="8">IF(AN56&lt;3000,0,AN56)</f>
+        <f t="shared" ref="V56" si="9">IF(AN56&lt;3000,0,AN56)</f>
         <v>0</v>
       </c>
       <c r="W56" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X56" s="7">
-        <f t="shared" ref="X56" si="9">J56+K56</f>
+        <f t="shared" ref="X56" si="10">J56+K56</f>
         <v>257811</v>
       </c>
       <c r="Y56" s="4">
@@ -18698,13 +18805,13 @@
         <v>52.51</v>
       </c>
       <c r="AF56" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG56" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH56" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI56" s="9">
         <v>0</v>
@@ -18713,8 +18820,8 @@
         <v>0</v>
       </c>
       <c r="AK56" s="4">
-        <f t="shared" ref="AK56" si="10">SUM(AH56:AJ56)</f>
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL56" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C56,0,"","auto")</f>
@@ -18841,13 +18948,13 @@
         <v>52.51</v>
       </c>
       <c r="AF57" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG57" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH57" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI57" s="9">
         <v>0</v>
@@ -18856,8 +18963,8 @@
         <v>0</v>
       </c>
       <c r="AK57" s="4">
-        <f t="shared" ref="AK57" si="21">SUM(AH57:AJ57)</f>
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL57" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C57,0,"","auto")</f>
@@ -18920,46 +19027,46 @@
         <v>2072.97998046875</v>
       </c>
       <c r="N58" s="8">
-        <f t="shared" ref="N58" si="22">(J58+F58-F57)/(D58*H58/100)/1000</f>
+        <f t="shared" ref="N58" si="21">(J58+F58-F57)/(D58*H58/100)/1000</f>
         <v>0.63815905711160814</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" ref="O58" si="23">(K58+G58-G57)/(E58*I58/100)/1000</f>
+        <f t="shared" ref="O58" si="22">(K58+G58-G57)/(E58*I58/100)/1000</f>
         <v>0.63815334196297047</v>
       </c>
       <c r="P58" s="8">
-        <f t="shared" ref="P58" si="24">((J58+K58)+F58+G58-F57-G57)/(D58*H58/100+E58*I58/100)/1000</f>
+        <f t="shared" ref="P58" si="23">((J58+K58)+F58+G58-F57-G57)/(D58*H58/100+E58*I58/100)/1000</f>
         <v>0.63815472504842796</v>
       </c>
       <c r="Q58" s="8">
-        <f t="shared" ref="Q58" si="25">P58*H58*10</f>
+        <f t="shared" ref="Q58" si="24">P58*H58*10</f>
         <v>287.68016173679331</v>
       </c>
       <c r="R58" s="8">
-        <f t="shared" ref="R58" si="26">P58*I58*10</f>
+        <f t="shared" ref="R58" si="25">P58*I58*10</f>
         <v>328.13914793493961</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" ref="S58" si="27">((J58+K58)+F58+G58-F57-G57)/(D58+E58)</f>
+        <f t="shared" ref="S58" si="26">((J58+K58)+F58+G58-F57-G57)/(D58+E58)</f>
         <v>317.3385114985461</v>
       </c>
       <c r="T58" s="5">
-        <f t="shared" ref="T58" si="28">IF(AL58&lt;3000,0,AL58)</f>
+        <f t="shared" ref="T58" si="27">IF(AL58&lt;3000,0,AL58)</f>
         <v>260673</v>
       </c>
       <c r="U58" s="5">
-        <f t="shared" ref="U58" si="29">IF(AM58&lt;3000,0,AM58)</f>
+        <f t="shared" ref="U58" si="28">IF(AM58&lt;3000,0,AM58)</f>
         <v>0</v>
       </c>
       <c r="V58" s="5">
-        <f t="shared" ref="V58" si="30">IF(AN58&lt;3000,0,AN58)</f>
+        <f t="shared" ref="V58" si="29">IF(AN58&lt;3000,0,AN58)</f>
         <v>0</v>
       </c>
       <c r="W58" s="5" t="s">
         <v>51</v>
       </c>
       <c r="X58" s="7">
-        <f t="shared" ref="X58" si="31">J58+K58</f>
+        <f t="shared" ref="X58" si="30">J58+K58</f>
         <v>264612</v>
       </c>
       <c r="Y58" s="4">
@@ -18984,13 +19091,13 @@
         <v>52.51</v>
       </c>
       <c r="AF58" s="9">
-        <v>1369.99</v>
+        <v>1072</v>
       </c>
       <c r="AG58" s="9">
-        <v>1287.671</v>
+        <v>830</v>
       </c>
       <c r="AH58" s="4">
-        <v>250000</v>
+        <v>252143</v>
       </c>
       <c r="AI58" s="9">
         <v>0</v>
@@ -18999,8 +19106,8 @@
         <v>0</v>
       </c>
       <c r="AK58" s="4">
-        <f t="shared" ref="AK58" si="32">SUM(AH58:AJ58)</f>
-        <v>250000</v>
+        <f t="shared" si="0"/>
+        <v>252143</v>
       </c>
       <c r="AL58" s="5">
         <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C58,0,"","auto")</f>
@@ -19022,43 +19129,141 @@
       <c r="C59" s="13">
         <v>46080</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
-      <c r="AK59" s="4"/>
-      <c r="AL59" s="4"/>
-      <c r="AM59" s="4"/>
-      <c r="AN59" s="4"/>
+      <c r="D59" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$1,Sheet1!C59,0,"","auto")</f>
+        <v>203.05000305175781</v>
+      </c>
+      <c r="E59" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$2,Sheet1!C59,0,"","auto")</f>
+        <v>592.6099853515625</v>
+      </c>
+      <c r="F59" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$3,Sheet1!C59,0,"","auto")</f>
+        <v>404537</v>
+      </c>
+      <c r="G59" s="7">
+        <f>_xll.PIArcVal(Sheet1!$A$4,Sheet1!C59,0,"","auto")</f>
+        <v>142870</v>
+      </c>
+      <c r="H59" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$5,Sheet1!C59,0,"","auto")</f>
+        <v>45.029998779296875</v>
+      </c>
+      <c r="I59" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$6,Sheet1!C59,0,"","auto")</f>
+        <v>51.270000457763672</v>
+      </c>
+      <c r="J59" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$7,Sheet1!C59,0,"","auto")</f>
+        <v>58715</v>
+      </c>
+      <c r="K59" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$8,Sheet1!C59,0,"","auto")</f>
+        <v>195109</v>
+      </c>
+      <c r="L59" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$9,Sheet1!C59,0,"","auto")</f>
+        <v>1481.9000244140625</v>
+      </c>
+      <c r="M59" s="6">
+        <f>_xll.PIArcVal(Sheet1!$A$10,Sheet1!C59,0,"","auto")</f>
+        <v>1844.9599609375</v>
+      </c>
+      <c r="N59" s="8">
+        <f t="shared" ref="N59" si="31">(J59+F59-F58)/(D59*H59/100)/1000</f>
+        <v>0.64615327682589385</v>
+      </c>
+      <c r="O59" s="8">
+        <f t="shared" ref="O59" si="32">(K59+G59-G58)/(E59*I59/100)/1000</f>
+        <v>0.6461549615251555</v>
+      </c>
+      <c r="P59" s="8">
+        <f t="shared" ref="P59" si="33">((J59+K59)+F59+G59-F58-G58)/(D59*H59/100+E59*I59/100)/1000</f>
+        <v>0.64615457181704095</v>
+      </c>
+      <c r="Q59" s="8">
+        <f t="shared" ref="Q59" si="34">P59*H59*10</f>
+        <v>290.96339580158451</v>
+      </c>
+      <c r="R59" s="8">
+        <f t="shared" ref="R59" si="35">P59*I59*10</f>
+        <v>331.28345192845779</v>
+      </c>
+      <c r="S59" s="4">
+        <f t="shared" ref="S59" si="36">((J59+K59)+F59+G59-F58-G58)/(D59+E59)</f>
+        <v>320.99389654181863</v>
+      </c>
+      <c r="T59" s="5">
+        <f t="shared" ref="T59" si="37">IF(AL59&lt;3000,0,AL59)</f>
+        <v>261073</v>
+      </c>
+      <c r="U59" s="5">
+        <f t="shared" ref="U59" si="38">IF(AM59&lt;3000,0,AM59)</f>
+        <v>0</v>
+      </c>
+      <c r="V59" s="5">
+        <f t="shared" ref="V59" si="39">IF(AN59&lt;3000,0,AN59)</f>
+        <v>4150</v>
+      </c>
+      <c r="W59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X59" s="7">
+        <f t="shared" ref="X59" si="40">J59+K59</f>
+        <v>253824</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Z59" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="AA59" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AB59" s="9">
+        <v>264.32</v>
+      </c>
+      <c r="AC59" s="9">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>44.27</v>
+      </c>
+      <c r="AE59" s="4">
+        <v>52.51</v>
+      </c>
+      <c r="AF59" s="9">
+        <v>1072</v>
+      </c>
+      <c r="AG59" s="9">
+        <v>830</v>
+      </c>
+      <c r="AH59" s="4">
+        <v>252143</v>
+      </c>
+      <c r="AI59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="4">
+        <f t="shared" ref="AK59" si="41">SUM(AH59:AJ59)</f>
+        <v>252143</v>
+      </c>
+      <c r="AL59" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$11,Sheet1!C59,0,"","auto")</f>
+        <v>261073</v>
+      </c>
+      <c r="AM59" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$12,Sheet1!C59,0,"","auto")</f>
+        <v>-611</v>
+      </c>
+      <c r="AN59" s="5">
+        <f>_xll.PIArcVal(Sheet1!$A$13,Sheet1!C59,0,"","auto")</f>
+        <v>4150</v>
+      </c>
     </row>
     <row r="60" spans="2:40">
       <c r="B60" s="20">
